--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97658E02-4BBB-4C16-B51B-CB6ACC221DF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A5F2C-0C97-407D-86E6-36BF1689A110}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="3" xr2:uid="{A9038219-B9CF-4E97-BE7C-F60600EF4568}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2" xr2:uid="{A9038219-B9CF-4E97-BE7C-F60600EF4568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="LinhaPonto" sheetId="3" r:id="rId3"/>
-    <sheet name="HoraPonto" sheetId="4" r:id="rId4"/>
+    <sheet name="horaLinha" sheetId="3" r:id="rId3"/>
+    <sheet name="horaLinhaPonto" sheetId="4" r:id="rId4"/>
     <sheet name="Ponto" sheetId="5" r:id="rId5"/>
+    <sheet name="linhas" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="251">
   <si>
     <t>Semana</t>
   </si>
@@ -558,21 +559,6 @@
     <t>19:30</t>
   </si>
   <si>
-    <t>Ponto A</t>
-  </si>
-  <si>
-    <t>Ponto B</t>
-  </si>
-  <si>
-    <t>Ponto C</t>
-  </si>
-  <si>
-    <t>Ponto D</t>
-  </si>
-  <si>
-    <t>Ponto E</t>
-  </si>
-  <si>
     <t>Ponto 1</t>
   </si>
   <si>
@@ -598,13 +584,217 @@
   </si>
   <si>
     <t>Ponto 9</t>
+  </si>
+  <si>
+    <t>são os horários do site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é a sequencia de pontos que a linha segue. </t>
+  </si>
+  <si>
+    <t>devemos inserir os sentidos</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>SentidoPonto</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Praça</t>
+  </si>
+  <si>
+    <t>Bairro Água Verde</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>SentidoLinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição </t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Ponto virtual</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Ponto 10</t>
+  </si>
+  <si>
+    <t>Ponto 11</t>
+  </si>
+  <si>
+    <t>Ponto 12</t>
+  </si>
+  <si>
+    <t>Ponto 13</t>
+  </si>
+  <si>
+    <t>Ponto 14</t>
+  </si>
+  <si>
+    <t>Ponto 15</t>
+  </si>
+  <si>
+    <t>Ponto 16</t>
+  </si>
+  <si>
+    <t>Ponto 17</t>
+  </si>
+  <si>
+    <t>Ponto 18</t>
+  </si>
+  <si>
+    <t>Ponto 19</t>
+  </si>
+  <si>
+    <t>Ponto 20</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>V. Guilherme Prust</t>
+  </si>
+  <si>
+    <t>Praça Lauro Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Expedicionários </t>
+  </si>
+  <si>
+    <t>R. Alvino Voigt</t>
+  </si>
+  <si>
+    <t>R. Jacobe Scheuer</t>
+  </si>
+  <si>
+    <t>Lateral SC280</t>
+  </si>
+  <si>
+    <t>R. Mario Maier</t>
+  </si>
+  <si>
+    <t>R. Jacobe Fuck</t>
+  </si>
+  <si>
+    <t>R. Sergio Gapski</t>
+  </si>
+  <si>
+    <t>(Sem nome)</t>
+  </si>
+  <si>
+    <t>Ponto Físico</t>
+  </si>
+  <si>
+    <t>Ponto 21</t>
+  </si>
+  <si>
+    <t>Ponto 22</t>
+  </si>
+  <si>
+    <t>Ponto 23</t>
+  </si>
+  <si>
+    <t>Ponto 24</t>
+  </si>
+  <si>
+    <t>Ponto 25</t>
+  </si>
+  <si>
+    <t>Ponto 26</t>
+  </si>
+  <si>
+    <t>Ponto 27</t>
+  </si>
+  <si>
+    <t>Ponto 28</t>
+  </si>
+  <si>
+    <t>Ponto 29</t>
+  </si>
+  <si>
+    <t>Ponto 30</t>
+  </si>
+  <si>
+    <t>Ponto 31</t>
+  </si>
+  <si>
+    <t>Ponto 32</t>
+  </si>
+  <si>
+    <t>Ponto 33</t>
+  </si>
+  <si>
+    <t>Ponto 34</t>
+  </si>
+  <si>
+    <t>R. Antonio Grosskopf</t>
+  </si>
+  <si>
+    <t>R. Narciso Ruthes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Último ponto antes do retorno para a praça. </t>
+  </si>
+  <si>
+    <t>Ponto virtual, próximo ao Procopiak</t>
+  </si>
+  <si>
+    <t>Ponto 35</t>
+  </si>
+  <si>
+    <t>Ponto virtual. Próximo ao posto Guapo.</t>
+  </si>
+  <si>
+    <t>R. Fracisco de Paula Pereira</t>
+  </si>
+  <si>
+    <t>Ponto virtual.</t>
+  </si>
+  <si>
+    <t>Ponto virtual. Próx. retifica Motocar</t>
+  </si>
+  <si>
+    <t>Ponto Físico. Próximo da Escola Estadual Emília Ferrero</t>
+  </si>
+  <si>
+    <t>Inicio da linha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponto final. </t>
+  </si>
+  <si>
+    <t>RoteiroPontos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, Ponto 33, Ponto 34, Ponto 35, </t>
+  </si>
+  <si>
+    <t>Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, Ponto 33, Ponto 34, Ponto 35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +833,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -816,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,6 +1229,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2150,16 +2380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>116032</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416873</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>236405</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>20199</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2536011</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>183485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2182,8 +2412,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17772784" y="3164032"/>
-          <a:ext cx="6838096" cy="4666667"/>
+          <a:off x="4553444" y="11899818"/>
+          <a:ext cx="6868031" cy="4666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,15 +2429,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>116032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>236405</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>20199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4100,10 +4330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76005D01-6542-4084-AE0C-F52B6237E75C}">
-  <dimension ref="F14:P143"/>
+  <dimension ref="F12:P143"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="I62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,6 +4351,11 @@
     <col min="17" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="72" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
         <v>104</v>
@@ -7079,30 +7314,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10646AB-5585-46AB-8FFD-FBA1CD63180D}">
-  <dimension ref="F14:O24"/>
+  <dimension ref="C10:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="70"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="70" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="2.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="70"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="70" customWidth="1"/>
+    <col min="11" max="11" width="2" style="70" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="2" style="70" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="str">
+        <f>$N$14&amp;$L$14&amp;$H15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H16&amp;$L$14</f>
+        <v>,"Intervalo":"0"</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K14" s="70" t="s">
         <v>109</v>
       </c>
@@ -7119,180 +7374,891 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="D15" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="E15" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="70" t="str">
+        <f>K$14&amp;L$14&amp;C$15&amp;L$14&amp;M$14&amp;L$14&amp;C16&amp;L$14&amp;N$14&amp;L$14&amp;D$15&amp;L$14&amp;M$14&amp;L$14&amp;D16&amp;L$14&amp;N$14&amp;L$14&amp;$F$15&amp;L$14&amp;M$14&amp;L$14&amp;$F16&amp;L$14&amp;N$14&amp;L$14&amp;E$15&amp;L$14&amp;M$14&amp;L$14&amp;E16&amp;L$14&amp;$N$14&amp;$L$14&amp;$G$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$G16&amp;$L$14&amp;$N$14&amp;$L$14&amp;$H$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H16&amp;$L$14&amp;O$14&amp;N$14</f>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 1","Descrição":"Inicio da linha.","Intervalo":"0"},</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I17" s="70" t="str">
+        <f t="shared" ref="I17:I51" si="0">K$14&amp;L$14&amp;C$15&amp;L$14&amp;M$14&amp;L$14&amp;C17&amp;L$14&amp;N$14&amp;L$14&amp;D$15&amp;L$14&amp;M$14&amp;L$14&amp;D17&amp;L$14&amp;N$14&amp;L$14&amp;$F$15&amp;L$14&amp;M$14&amp;L$14&amp;$F17&amp;L$14&amp;N$14&amp;L$14&amp;E$15&amp;L$14&amp;M$14&amp;L$14&amp;E17&amp;L$14&amp;$N$14&amp;$L$14&amp;$G$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$G17&amp;$L$14&amp;$N$14&amp;$L$14&amp;$H$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H17&amp;$L$14&amp;O$14&amp;N$14</f>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 2","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I18" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 3","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I19" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 4","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I20" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 5","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 6","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I22" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 7","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I23" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 8","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I24" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 9","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I25" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 10","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I26" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 11","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I27" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 12","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I28" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 13","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I29" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 14","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I30" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 15","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I31" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 16","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I32" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 17","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I33" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 18","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I34" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 19","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I35" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 20","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I36" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 21","Descrição":"-","Intervalo":"1.6"},</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 22","Descrição":"Último ponto antes do retorno para a praça. ","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 23","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 24","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 25","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 26","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 27","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 28","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 29","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 30","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 31","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 32","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 33","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 34","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 35","Descrição":"-","Intervalo":"2"},</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="70" t="str">
-        <f>K$14&amp;L$14&amp;F$15&amp;L$14&amp;M$14&amp;L$14&amp;F16&amp;L$14&amp;N$14&amp;L$14&amp;G$15&amp;L$14&amp;M$14&amp;L$14&amp;G16&amp;L$14&amp;N$14&amp;L$14&amp;H$15&amp;L$14&amp;M$14&amp;L$14&amp;H16&amp;L$14&amp;N$14&amp;L$14&amp;I$15&amp;L$14&amp;M$14&amp;L$14&amp;I16&amp;L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Cohab II","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto A"},</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="70" t="str">
-        <f t="shared" ref="J17:J24" si="0">K$14&amp;L$14&amp;F$15&amp;L$14&amp;M$14&amp;L$14&amp;F17&amp;L$14&amp;N$14&amp;L$14&amp;G$15&amp;L$14&amp;M$14&amp;L$14&amp;G17&amp;L$14&amp;N$14&amp;L$14&amp;H$15&amp;L$14&amp;M$14&amp;L$14&amp;H17&amp;L$14&amp;N$14&amp;L$14&amp;I$15&amp;L$14&amp;M$14&amp;L$14&amp;I17&amp;L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Cohab II","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto C"},</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab II","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto D"},</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab II","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto B"},</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab II","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto E"},</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab I","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto E"},</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab I","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto D"},</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab I","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto C"},</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Cohab I","RoteiroInicio":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto B"},</v>
+      <c r="F51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 1","Descrição":"Ponto final. ","Intervalo":"2"},</v>
       </c>
     </row>
   </sheetData>
@@ -7303,225 +8269,1390 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C03B5-9AE1-4FC4-AF7D-985FA0BA2472}">
-  <dimension ref="F14:O24"/>
+  <dimension ref="B3:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="70"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="100.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="1.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="70"/>
+    <col min="1" max="1" width="9.140625" style="70"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="1.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>-26.18674</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-50.360370000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="75"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="I8" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="J8" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="K8" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="L8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="M8" s="70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
-        <v>11</v>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-26.17371</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-50.390079999999998</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","Descrição ":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-26.17314</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-50.388159999999999</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-26.17154</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-50.38456</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B12&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C12&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D12&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F12&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G12&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-26.173500000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-50.37932</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B13&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C13&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D13&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F13&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G13&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-26.176279999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-50.37574</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B14&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C14&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D14&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F14&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G14&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-26.180530000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-50.370330000000003</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
+      </c>
+      <c r="H15" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B15&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C15&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D15&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F15&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G15&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-26.183009999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-50.367199999999997</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>209</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="70" t="str">
-        <f>K$14&amp;L$14&amp;F$15&amp;L$14&amp;M$14&amp;L$14&amp;F16&amp;L$14&amp;N$14&amp;L$14&amp;G$15&amp;L$14&amp;M$14&amp;L$14&amp;G16&amp;L$14&amp;N$14&amp;L$14&amp;H$15&amp;L$14&amp;M$14&amp;L$14&amp;H16&amp;L$14&amp;N$14&amp;L$14&amp;I$15&amp;L$14&amp;M$14&amp;L$14&amp;I16&amp;L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Ponto 1","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto A"},</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
+      </c>
+      <c r="H16" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B16&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C16&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D16&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F16&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G16&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","Descrição ":"IFSC","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-26.18411</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-50.362879999999997</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="70" t="str">
-        <f t="shared" ref="J17:J24" si="0">K$14&amp;L$14&amp;F$15&amp;L$14&amp;M$14&amp;L$14&amp;F17&amp;L$14&amp;N$14&amp;L$14&amp;G$15&amp;L$14&amp;M$14&amp;L$14&amp;G17&amp;L$14&amp;N$14&amp;L$14&amp;H$15&amp;L$14&amp;M$14&amp;L$14&amp;H17&amp;L$14&amp;N$14&amp;L$14&amp;I$15&amp;L$14&amp;M$14&amp;L$14&amp;I17&amp;L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Ponto 2","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto C"},</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
+      </c>
+      <c r="H17" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B17&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C17&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D17&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F17&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G17&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-26.18573</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-50.360770000000002</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 3","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto D"},</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="H18" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B18&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C18&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D18&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F18&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G18&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-26.18674</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-50.360370000000003</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 4","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto B"},</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="H19" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B19&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C19&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D19&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F19&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G19&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-26.18796</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-50.364640000000001</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 5","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab II","PontoID":"Ponto E"},</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="H20" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B20&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C20&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D20&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F20&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G20&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-26.188690000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-50.368810000000003</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 6","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto E"},</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
+      </c>
+      <c r="H21" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B21&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C21&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D21&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F21&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G21&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-26.189419999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-50.373460000000001</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>244</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 7","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto D"},</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
+      </c>
+      <c r="H22" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B22&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C22&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D22&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F22&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G22&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","Descrição ":"Ponto virtual. Próx. retifica Motocar","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-26.1907</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-50.378329999999998</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 8","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto C"},</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
+      </c>
+      <c r="H23" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B23&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C23&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D23&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F23&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G23&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-26.19408</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-50.378</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Ponto 9","Ponto":"Terminal Urbano","RoteiroFim":"Bairro Cohab I","PontoID":"Ponto B"},</v>
+        <v>195</v>
+      </c>
+      <c r="H24" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B24&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C24&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D24&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F24&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G24&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-26.195879999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-50.378239999999998</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B25&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C25&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D25&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F25&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G25&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-26.199590000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-50.37876</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B26&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C26&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D26&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F26&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G26&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-26.201070000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-50.382820000000002</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B27&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C27&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D27&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F27&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G27&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-26.203022000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-50.384556000000003</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B28&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C28&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D28&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F28&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G28&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-26.205335999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-50.383465000000001</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="70" t="str">
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B29&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C29&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D29&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F29&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G29&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-26.20448</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-50.379910000000002</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="70" t="str">
+        <f t="shared" ref="H30:H44" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B30&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C30&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D30&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F30&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G30&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-26.200403000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-50.376750000000001</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-26.197900000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-50.377719999999997</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-26.193760000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-50.377130000000001</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","Descrição ":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-26.190619999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-50.378320000000002</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-26.18956</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-50.372929999999997</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-26.188179999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-50.364379999999997</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","Descrição ":"Ponto virtual, próximo ao Procopiak","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-26.18422</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-50.36262</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-26.18318</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-50.366849999999999</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-26.181576</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-50.369019999999999</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-26.179175999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-50.371997999999998</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-26.176902999999999</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-50.374890000000001</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-26.173763000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-50.378974999999997</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-26.17144</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-50.38373</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","Descrição ":"Ponto virtual. Próximo ao posto Guapo.","SentidoPonto":"Praça"},</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-26.172239999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-50.387230000000002</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","Descrição ":"Ponto virtual.","SentidoPonto":"Praça"},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7480796-5F2B-4F5A-B934-29D55A666AB2}">
+  <dimension ref="E5:AN46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>200</v>
+      </c>
+      <c r="R11" t="s">
+        <v>201</v>
+      </c>
+      <c r="S11" t="s">
+        <v>202</v>
+      </c>
+      <c r="T11" t="s">
+        <v>203</v>
+      </c>
+      <c r="U11" t="s">
+        <v>204</v>
+      </c>
+      <c r="V11" t="s">
+        <v>205</v>
+      </c>
+      <c r="W11" t="s">
+        <v>206</v>
+      </c>
+      <c r="X11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="80" t="str">
+        <f>F11&amp;F10&amp;" "</f>
+        <v xml:space="preserve">Ponto 1, </v>
+      </c>
+      <c r="G12" t="str">
+        <f>F12&amp;G11&amp;$F$10&amp;" "</f>
+        <v xml:space="preserve">Ponto 1, Ponto 2, </v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:AN12" si="0">G12&amp;H11&amp;$F$10&amp;" "</f>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, </v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, </v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, </v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, </v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, </v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, </v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, </v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, </v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, </v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, </v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, </v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, </v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, </v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, </v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, </v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, </v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, </v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, </v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, </v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, </v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, </v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, </v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, </v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, </v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, </v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, </v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, </v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, </v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, </v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, Ponto 33, </v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, Ponto 33, Ponto 34, </v>
+      </c>
+      <c r="AN12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" t="str">
+        <f>H12</f>
+        <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, </v>
+      </c>
+    </row>
+    <row r="15" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A5F2C-0C97-407D-86E6-36BF1689A110}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93592903-ACDE-4661-9234-A157CED420F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2" xr2:uid="{A9038219-B9CF-4E97-BE7C-F60600EF4568}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="3" xr2:uid="{A9038219-B9CF-4E97-BE7C-F60600EF4568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="253">
   <si>
     <t>Semana</t>
   </si>
@@ -788,6 +788,12 @@
   </si>
   <si>
     <t>Ponto 1, Ponto 2, Ponto 3, Ponto 4, Ponto 5, Ponto 6, Ponto 7, Ponto 8, Ponto 9, Ponto 10, Ponto 11, Ponto 12, Ponto 13, Ponto 14, Ponto 15, Ponto 16, Ponto 17, Ponto 18, Ponto 19, Ponto 20, Ponto 21, Ponto 22, Ponto 23, Ponto 24, Ponto 25, Ponto 26, Ponto 27, Ponto 28, Ponto 29, Ponto 30, Ponto 31, Ponto 32, Ponto 33, Ponto 34, Ponto 35</t>
+  </si>
+  <si>
+    <t>IntervaloMin</t>
+  </si>
+  <si>
+    <t>IntervaloSeg</t>
   </si>
 </sst>
 </file>
@@ -2386,8 +2392,8 @@
       <xdr:rowOff>88818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2536011</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1243332</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>183485</xdr:rowOff>
     </xdr:to>
@@ -4332,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76005D01-6542-4084-AE0C-F52B6237E75C}">
   <dimension ref="F12:P143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7314,10 +7320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10646AB-5585-46AB-8FFD-FBA1CD63180D}">
-  <dimension ref="C10:O51"/>
+  <dimension ref="C10:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7328,53 +7334,54 @@
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="70" customWidth="1"/>
-    <col min="11" max="11" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="70"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="70" customWidth="1"/>
+    <col min="12" max="12" width="2" style="70" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="2" style="70" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="72" t="s">
         <v>184</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="72" t="s">
         <v>185</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="1" t="str">
-        <f>$N$14&amp;$L$14&amp;$H15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H16&amp;$L$14</f>
-        <v>,"Intervalo":"0"</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="70" t="s">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="str">
+        <f>$O$14&amp;$M$14&amp;I$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$I16&amp;$M$14</f>
+        <v>,"IntervaloSeg":"0"</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="M14" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="N14" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="O14" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="P14" s="70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
@@ -7391,13 +7398,16 @@
         <v>188</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" s="70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
@@ -7416,12 +7426,15 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="70" t="str">
-        <f>K$14&amp;L$14&amp;C$15&amp;L$14&amp;M$14&amp;L$14&amp;C16&amp;L$14&amp;N$14&amp;L$14&amp;D$15&amp;L$14&amp;M$14&amp;L$14&amp;D16&amp;L$14&amp;N$14&amp;L$14&amp;$F$15&amp;L$14&amp;M$14&amp;L$14&amp;$F16&amp;L$14&amp;N$14&amp;L$14&amp;E$15&amp;L$14&amp;M$14&amp;L$14&amp;E16&amp;L$14&amp;$N$14&amp;$L$14&amp;$G$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$G16&amp;$L$14&amp;$N$14&amp;$L$14&amp;$H$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H16&amp;$L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 1","Descrição":"Inicio da linha.","Intervalo":"0"},</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="70" t="str">
+        <f>L$14&amp;M$14&amp;C$15&amp;M$14&amp;N$14&amp;M$14&amp;C16&amp;M$14&amp;O$14&amp;M$14&amp;D$15&amp;M$14&amp;N$14&amp;M$14&amp;D16&amp;M$14&amp;O$14&amp;M$14&amp;$F$15&amp;M$14&amp;N$14&amp;M$14&amp;$F16&amp;M$14&amp;O$14&amp;M$14&amp;E$15&amp;M$14&amp;N$14&amp;M$14&amp;E16&amp;M$14&amp;$O$14&amp;$M$14&amp;$G$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$G16&amp;$M$14&amp;$O$14&amp;$M$14&amp;$H$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$H16&amp;$M$14&amp;$O$14&amp;$M$14&amp;I$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$I16&amp;$M$14&amp;P$14&amp;O$14</f>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 1","Descrição":"Inicio da linha.","IntervaloMin":"0","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>136</v>
       </c>
@@ -7438,14 +7451,17 @@
         <v>52</v>
       </c>
       <c r="H17" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I17" s="70" t="str">
-        <f t="shared" ref="I17:I51" si="0">K$14&amp;L$14&amp;C$15&amp;L$14&amp;M$14&amp;L$14&amp;C17&amp;L$14&amp;N$14&amp;L$14&amp;D$15&amp;L$14&amp;M$14&amp;L$14&amp;D17&amp;L$14&amp;N$14&amp;L$14&amp;$F$15&amp;L$14&amp;M$14&amp;L$14&amp;$F17&amp;L$14&amp;N$14&amp;L$14&amp;E$15&amp;L$14&amp;M$14&amp;L$14&amp;E17&amp;L$14&amp;$N$14&amp;$L$14&amp;$G$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$G17&amp;$L$14&amp;$N$14&amp;$L$14&amp;$H$15&amp;$L$14&amp;$M$14&amp;$L$14&amp;$H17&amp;$L$14&amp;O$14&amp;N$14</f>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 2","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>42</v>
+      </c>
+      <c r="J17" s="70" t="str">
+        <f t="shared" ref="J17:J51" si="0">L$14&amp;M$14&amp;C$15&amp;M$14&amp;N$14&amp;M$14&amp;C17&amp;M$14&amp;O$14&amp;M$14&amp;D$15&amp;M$14&amp;N$14&amp;M$14&amp;D17&amp;M$14&amp;O$14&amp;M$14&amp;$F$15&amp;M$14&amp;N$14&amp;M$14&amp;$F17&amp;M$14&amp;O$14&amp;M$14&amp;E$15&amp;M$14&amp;N$14&amp;M$14&amp;E17&amp;M$14&amp;$O$14&amp;$M$14&amp;$G$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$G17&amp;$M$14&amp;$O$14&amp;$M$14&amp;$H$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$H17&amp;$M$14&amp;$O$14&amp;$M$14&amp;I$15&amp;$M$14&amp;$N$14&amp;$M$14&amp;$I17&amp;$M$14&amp;P$14&amp;O$14</f>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 2","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>136</v>
       </c>
@@ -7462,14 +7478,17 @@
         <v>52</v>
       </c>
       <c r="H18" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I18" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 3","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>42</v>
+      </c>
+      <c r="J18" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 3","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>136</v>
       </c>
@@ -7486,14 +7505,17 @@
         <v>52</v>
       </c>
       <c r="H19" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I19" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 4","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>42</v>
+      </c>
+      <c r="J19" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 4","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>136</v>
       </c>
@@ -7510,14 +7532,17 @@
         <v>52</v>
       </c>
       <c r="H20" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I20" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 5","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>42</v>
+      </c>
+      <c r="J20" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 5","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
@@ -7534,14 +7559,17 @@
         <v>52</v>
       </c>
       <c r="H21" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I21" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 6","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>42</v>
+      </c>
+      <c r="J21" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 6","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>136</v>
       </c>
@@ -7558,14 +7586,17 @@
         <v>52</v>
       </c>
       <c r="H22" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I22" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 7","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42</v>
+      </c>
+      <c r="J22" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 7","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>136</v>
       </c>
@@ -7582,14 +7613,17 @@
         <v>52</v>
       </c>
       <c r="H23" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I23" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 8","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42</v>
+      </c>
+      <c r="J23" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 8","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>136</v>
       </c>
@@ -7606,14 +7640,17 @@
         <v>52</v>
       </c>
       <c r="H24" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I24" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 9","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>42</v>
+      </c>
+      <c r="J24" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 9","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>136</v>
       </c>
@@ -7630,14 +7667,17 @@
         <v>52</v>
       </c>
       <c r="H25" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I25" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 10","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>42</v>
+      </c>
+      <c r="J25" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 10","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>136</v>
       </c>
@@ -7654,14 +7694,17 @@
         <v>52</v>
       </c>
       <c r="H26" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I26" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 11","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>42</v>
+      </c>
+      <c r="J26" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 11","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>136</v>
       </c>
@@ -7678,14 +7721,17 @@
         <v>52</v>
       </c>
       <c r="H27" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I27" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 12","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>42</v>
+      </c>
+      <c r="J27" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 12","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>136</v>
       </c>
@@ -7702,14 +7748,17 @@
         <v>52</v>
       </c>
       <c r="H28" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I28" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 13","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>42</v>
+      </c>
+      <c r="J28" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 13","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>136</v>
       </c>
@@ -7726,14 +7775,17 @@
         <v>52</v>
       </c>
       <c r="H29" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I29" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 14","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>42</v>
+      </c>
+      <c r="J29" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 14","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>136</v>
       </c>
@@ -7750,14 +7802,17 @@
         <v>52</v>
       </c>
       <c r="H30" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I30" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 15","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>42</v>
+      </c>
+      <c r="J30" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 15","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>136</v>
       </c>
@@ -7774,14 +7829,17 @@
         <v>52</v>
       </c>
       <c r="H31" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I31" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 16","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>42</v>
+      </c>
+      <c r="J31" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 16","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
@@ -7798,14 +7856,17 @@
         <v>52</v>
       </c>
       <c r="H32" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I32" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 17","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>42</v>
+      </c>
+      <c r="J32" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 17","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>136</v>
       </c>
@@ -7822,14 +7883,17 @@
         <v>52</v>
       </c>
       <c r="H33" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I33" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 18","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>42</v>
+      </c>
+      <c r="J33" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 18","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
@@ -7846,14 +7910,17 @@
         <v>52</v>
       </c>
       <c r="H34" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I34" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 19","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>42</v>
+      </c>
+      <c r="J34" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 19","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
@@ -7870,14 +7937,17 @@
         <v>52</v>
       </c>
       <c r="H35" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I35" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 20","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>42</v>
+      </c>
+      <c r="J35" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 20","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>136</v>
       </c>
@@ -7894,14 +7964,17 @@
         <v>52</v>
       </c>
       <c r="H36" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I36" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 21","Descrição":"-","Intervalo":"1.6"},</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>42</v>
+      </c>
+      <c r="J36" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 21","Descrição":"-","IntervaloMin":"1","IntervaloSeg":"42"},</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>136</v>
       </c>
@@ -7920,12 +7993,15 @@
       <c r="H37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 22","Descrição":"Último ponto antes do retorno para a praça. ","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Bairro Água Verde","PontoID":"Ponto 22","Descrição":"Último ponto antes do retorno para a praça. ","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
@@ -7944,12 +8020,15 @@
       <c r="H38" s="1">
         <v>2</v>
       </c>
-      <c r="I38" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 23","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 23","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>136</v>
       </c>
@@ -7968,12 +8047,15 @@
       <c r="H39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 24","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 24","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>136</v>
       </c>
@@ -7992,12 +8074,15 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 25","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 25","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>136</v>
       </c>
@@ -8016,12 +8101,15 @@
       <c r="H41" s="1">
         <v>2</v>
       </c>
-      <c r="I41" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 26","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 26","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>136</v>
       </c>
@@ -8040,12 +8128,15 @@
       <c r="H42" s="1">
         <v>2</v>
       </c>
-      <c r="I42" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 27","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 27","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>136</v>
       </c>
@@ -8064,12 +8155,15 @@
       <c r="H43" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 28","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 28","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
@@ -8086,14 +8180,17 @@
         <v>52</v>
       </c>
       <c r="H44" s="1">
-        <v>2</v>
-      </c>
-      <c r="I44" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 29","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 29","Descrição":"-","IntervaloMin":"3","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
@@ -8112,12 +8209,15 @@
       <c r="H45" s="1">
         <v>2</v>
       </c>
-      <c r="I45" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 30","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 30","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>136</v>
       </c>
@@ -8136,12 +8236,15 @@
       <c r="H46" s="1">
         <v>2</v>
       </c>
-      <c r="I46" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 31","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 31","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>136</v>
       </c>
@@ -8160,12 +8263,15 @@
       <c r="H47" s="1">
         <v>2</v>
       </c>
-      <c r="I47" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 32","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 32","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>136</v>
       </c>
@@ -8184,12 +8290,15 @@
       <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="I48" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 33","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 33","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>136</v>
       </c>
@@ -8208,12 +8317,15 @@
       <c r="H49" s="1">
         <v>2</v>
       </c>
-      <c r="I49" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 34","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 34","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
@@ -8232,12 +8344,15 @@
       <c r="H50" s="1">
         <v>2</v>
       </c>
-      <c r="I50" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 35","Descrição":"-","Intervalo":"2"},</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 35","Descrição":"-","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>136</v>
       </c>
@@ -8256,9 +8371,22 @@
       <c r="H51" s="1">
         <v>2</v>
       </c>
-      <c r="I51" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 1","Descrição":"Ponto final. ","Intervalo":"2"},</v>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"LinhaID":"Campo Água Verde","RoteiroInicio":"Praça","SentidoLinha":"Praça Lauro Mueller","PontoID":"Ponto 1","Descrição":"Ponto final. ","IntervaloMin":"2","IntervaloSeg":"0"},</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <f>SUM(H16:H51)</f>
+        <v>51</v>
+      </c>
+      <c r="I53" s="1">
+        <f>SUM(I17:I51)/60</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8366,7 +8494,7 @@
         <v>195</v>
       </c>
       <c r="H10" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" ref="H10:H29" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
         <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","Descrição ":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8390,7 +8518,7 @@
         <v>195</v>
       </c>
       <c r="H11" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8414,7 +8542,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B12&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C12&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D12&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F12&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G12&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8438,7 +8566,7 @@
         <v>195</v>
       </c>
       <c r="H13" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B13&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C13&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D13&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F13&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G13&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8462,7 +8590,7 @@
         <v>195</v>
       </c>
       <c r="H14" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B14&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C14&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D14&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F14&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G14&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8486,7 +8614,7 @@
         <v>195</v>
       </c>
       <c r="H15" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B15&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C15&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D15&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F15&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G15&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8510,7 +8638,7 @@
         <v>195</v>
       </c>
       <c r="H16" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B16&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C16&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D16&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F16&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G16&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","Descrição ":"IFSC","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8534,7 +8662,7 @@
         <v>195</v>
       </c>
       <c r="H17" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B17&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C17&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D17&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F17&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G17&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8558,7 +8686,7 @@
         <v>195</v>
       </c>
       <c r="H18" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B18&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C18&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D18&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F18&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G18&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8582,7 +8710,7 @@
         <v>195</v>
       </c>
       <c r="H19" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B19&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C19&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D19&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F19&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G19&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8606,7 +8734,7 @@
         <v>195</v>
       </c>
       <c r="H20" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B20&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C20&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D20&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F20&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G20&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8630,7 +8758,7 @@
         <v>195</v>
       </c>
       <c r="H21" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B21&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C21&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D21&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F21&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G21&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8654,7 +8782,7 @@
         <v>195</v>
       </c>
       <c r="H22" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B22&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C22&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D22&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F22&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G22&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","Descrição ":"Ponto virtual. Próx. retifica Motocar","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8678,7 +8806,7 @@
         <v>195</v>
       </c>
       <c r="H23" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B23&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C23&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D23&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F23&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G23&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8702,7 +8830,7 @@
         <v>195</v>
       </c>
       <c r="H24" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B24&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C24&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D24&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F24&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G24&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8726,7 +8854,7 @@
         <v>195</v>
       </c>
       <c r="H25" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B25&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C25&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D25&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F25&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G25&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8750,7 +8878,7 @@
         <v>195</v>
       </c>
       <c r="H26" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B26&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C26&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D26&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F26&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G26&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8774,7 +8902,7 @@
         <v>195</v>
       </c>
       <c r="H27" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B27&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C27&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D27&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F27&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G27&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8798,7 +8926,7 @@
         <v>195</v>
       </c>
       <c r="H28" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B28&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C28&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D28&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F28&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G28&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8822,7 +8950,7 @@
         <v>195</v>
       </c>
       <c r="H29" s="70" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B29&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C29&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D29&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F29&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G29&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" si="0"/>
         <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8846,7 +8974,7 @@
         <v>195</v>
       </c>
       <c r="H30" s="70" t="str">
-        <f t="shared" ref="H30:H44" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B30&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C30&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D30&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F30&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G30&amp;$J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" ref="H30:H44" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B30&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C30&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D30&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F30&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G30&amp;$J$8&amp;M$8&amp;L$8</f>
         <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8870,7 +8998,7 @@
         <v>195</v>
       </c>
       <c r="H31" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
@@ -8894,7 +9022,7 @@
         <v>189</v>
       </c>
       <c r="H32" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -8918,7 +9046,7 @@
         <v>189</v>
       </c>
       <c r="H33" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","Descrição ":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -8942,7 +9070,7 @@
         <v>189</v>
       </c>
       <c r="H34" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -8966,7 +9094,7 @@
         <v>189</v>
       </c>
       <c r="H35" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -8990,7 +9118,7 @@
         <v>189</v>
       </c>
       <c r="H36" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","Descrição ":"Ponto virtual, próximo ao Procopiak","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9014,7 +9142,7 @@
         <v>189</v>
       </c>
       <c r="H37" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9038,7 +9166,7 @@
         <v>189</v>
       </c>
       <c r="H38" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9062,7 +9190,7 @@
         <v>189</v>
       </c>
       <c r="H39" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9086,7 +9214,7 @@
         <v>189</v>
       </c>
       <c r="H40" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9110,7 +9238,7 @@
         <v>189</v>
       </c>
       <c r="H41" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9134,7 +9262,7 @@
         <v>189</v>
       </c>
       <c r="H42" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9158,7 +9286,7 @@
         <v>189</v>
       </c>
       <c r="H43" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","Descrição ":"Ponto virtual. Próximo ao posto Guapo.","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9182,7 +9310,7 @@
         <v>189</v>
       </c>
       <c r="H44" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","Descrição ":"Ponto virtual.","SentidoPonto":"Praça"},</v>
       </c>
     </row>
@@ -9347,7 +9475,7 @@
         <v xml:space="preserve">Ponto 1, Ponto 2, </v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ref="H12:AN12" si="0">G12&amp;H11&amp;$F$10&amp;" "</f>
+        <f t="shared" ref="H12:AM12" si="0">G12&amp;H11&amp;$F$10&amp;" "</f>
         <v xml:space="preserve">Ponto 1, Ponto 2, Ponto 3, </v>
       </c>
       <c r="I12" t="str">

--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D81D6-C42A-4392-9348-23062BBB3D94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D6023-985F-4F62-BB9B-11AA8F497D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -712,9 +712,6 @@
     <t>Endereço</t>
   </si>
   <si>
-    <t xml:space="preserve">Descrição </t>
-  </si>
-  <si>
     <t>SentidoPonto</t>
   </si>
   <si>
@@ -1091,6 +1088,9 @@
   </si>
   <si>
     <t xml:space="preserve">Centro </t>
+  </si>
+  <si>
+    <t>Comentario</t>
   </si>
 </sst>
 </file>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>114</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>114</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>114</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>114</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>114</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>114</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>114</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>114</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>114</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>114</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>114</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>114</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>114</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>114</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>114</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>114</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>114</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>114</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>114</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>114</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>114</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>114</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>114</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>114</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>114</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>114</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>114</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>114</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>114</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>114</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>114</v>
@@ -7084,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A10:AMK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView topLeftCell="B87" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>181</v>
@@ -8151,10 +8151,10 @@
         <v>182</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="G52" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -8169,16 +8169,16 @@
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G53" s="69" t="s">
         <v>48</v>
@@ -8196,16 +8196,16 @@
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G54" s="69" t="s">
         <v>48</v>
@@ -8223,16 +8223,16 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>48</v>
@@ -8250,16 +8250,16 @@
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56" s="69" t="s">
         <v>48</v>
@@ -8277,16 +8277,16 @@
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G57" s="69" t="s">
         <v>48</v>
@@ -8304,16 +8304,16 @@
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="69" t="s">
         <v>48</v>
@@ -8331,16 +8331,16 @@
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G59" s="69" t="s">
         <v>48</v>
@@ -8358,16 +8358,16 @@
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G60" s="69" t="s">
         <v>48</v>
@@ -8385,13 +8385,13 @@
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -8412,13 +8412,13 @@
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
@@ -8439,13 +8439,13 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>26</v>
@@ -8466,13 +8466,13 @@
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>26</v>
@@ -8493,13 +8493,13 @@
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>26</v>
@@ -8520,13 +8520,13 @@
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>26</v>
@@ -8547,13 +8547,13 @@
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>26</v>
@@ -8574,13 +8574,13 @@
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
@@ -8601,13 +8601,13 @@
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>26</v>
@@ -8628,13 +8628,13 @@
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>26</v>
@@ -8655,16 +8655,16 @@
     </row>
     <row r="71" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>48</v>
@@ -8682,16 +8682,16 @@
     </row>
     <row r="72" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>48</v>
@@ -8709,16 +8709,16 @@
     </row>
     <row r="73" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G73" s="69" t="s">
         <v>48</v>
@@ -8736,16 +8736,16 @@
     </row>
     <row r="74" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G74" s="69" t="s">
         <v>48</v>
@@ -8763,16 +8763,16 @@
     </row>
     <row r="75" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G75" s="69" t="s">
         <v>48</v>
@@ -8790,16 +8790,16 @@
     </row>
     <row r="76" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" s="69" t="s">
         <v>48</v>
@@ -8817,16 +8817,16 @@
     </row>
     <row r="77" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G77" s="69" t="s">
         <v>48</v>
@@ -8844,16 +8844,16 @@
     </row>
     <row r="78" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G78" s="69" t="s">
         <v>48</v>
@@ -8871,16 +8871,16 @@
     </row>
     <row r="79" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G79" s="69" t="s">
         <v>48</v>
@@ -8898,13 +8898,13 @@
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F80" s="69" t="s">
         <v>26</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F81" s="69" t="s">
         <v>26</v>
@@ -8952,13 +8952,13 @@
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F82" s="69" t="s">
         <v>26</v>
@@ -8979,13 +8979,13 @@
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F83" s="69" t="s">
         <v>26</v>
@@ -9006,13 +9006,13 @@
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F84" s="69" t="s">
         <v>26</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>181</v>
@@ -9042,10 +9042,10 @@
         <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G85" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
@@ -9060,16 +9060,16 @@
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G86" s="69" t="s">
         <v>48</v>
@@ -9087,16 +9087,16 @@
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G87" s="69" t="s">
         <v>48</v>
@@ -9114,16 +9114,16 @@
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G88" s="69" t="s">
         <v>48</v>
@@ -9141,16 +9141,16 @@
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G89" s="69" t="s">
         <v>48</v>
@@ -9168,16 +9168,16 @@
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G90" s="69" t="s">
         <v>48</v>
@@ -9195,16 +9195,16 @@
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G91" s="69" t="s">
         <v>48</v>
@@ -9222,16 +9222,16 @@
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G92" s="69" t="s">
         <v>48</v>
@@ -9249,16 +9249,16 @@
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G93" s="69" t="s">
         <v>48</v>
@@ -9276,16 +9276,16 @@
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>48</v>
@@ -9303,16 +9303,16 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G95" s="69" t="s">
         <v>48</v>
@@ -9330,16 +9330,16 @@
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G96" s="69" t="s">
         <v>48</v>
@@ -9357,16 +9357,16 @@
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G97" s="69" t="s">
         <v>48</v>
@@ -9384,16 +9384,16 @@
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G98" s="69" t="s">
         <v>48</v>
@@ -9411,16 +9411,16 @@
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G99" s="69" t="s">
         <v>48</v>
@@ -9438,16 +9438,16 @@
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G100" s="69" t="s">
         <v>48</v>
@@ -9465,16 +9465,16 @@
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G101" s="69" t="s">
         <v>48</v>
@@ -9492,16 +9492,16 @@
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G102" s="69" t="s">
         <v>48</v>
@@ -9519,16 +9519,16 @@
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G103" s="69" t="s">
         <v>48</v>
@@ -9546,16 +9546,16 @@
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G104" s="69" t="s">
         <v>48</v>
@@ -9573,13 +9573,13 @@
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>183</v>
@@ -9600,13 +9600,13 @@
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>183</v>
@@ -9627,13 +9627,13 @@
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>183</v>
@@ -9654,13 +9654,13 @@
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>183</v>
@@ -9681,13 +9681,13 @@
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>183</v>
@@ -9708,13 +9708,13 @@
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>183</v>
@@ -9735,13 +9735,13 @@
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>183</v>
@@ -9762,13 +9762,13 @@
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>183</v>
@@ -9789,13 +9789,13 @@
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>26</v>
@@ -9816,13 +9816,13 @@
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
@@ -9843,13 +9843,13 @@
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>26</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>26</v>
@@ -9897,13 +9897,13 @@
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
@@ -9924,13 +9924,13 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>26</v>
@@ -9951,13 +9951,13 @@
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>26</v>
@@ -9978,13 +9978,13 @@
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>26</v>
@@ -10005,13 +10005,13 @@
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>26</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>181</v>
@@ -10068,8 +10068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AMK116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="D89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10097,6 +10097,12 @@
         <v>-50.360370000000003</v>
       </c>
     </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="66" t="str">
+        <f>$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;$L$8</f>
+        <v>"SentidoPonto":"Bairro",</v>
+      </c>
+    </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>105</v>
@@ -10131,13 +10137,13 @@
         <v>224</v>
       </c>
       <c r="F9" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="74" t="s">
         <v>226</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -10157,11 +10163,11 @@
         <v>208</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="66" t="str">
-        <f t="shared" ref="H10:H73" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","Descrição ":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -10175,17 +10181,17 @@
         <v>-50.388159999999999</v>
       </c>
       <c r="E11" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="69" t="s">
-        <v>230</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <f t="shared" ref="H11:H74" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -10199,17 +10205,17 @@
         <v>-50.38456</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H12" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -10223,17 +10229,17 @@
         <v>-50.37932</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -10247,17 +10253,17 @@
         <v>-50.37574</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -10271,17 +10277,17 @@
         <v>-50.370330000000003</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H15" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -10295,17 +10301,17 @@
         <v>-50.367199999999997</v>
       </c>
       <c r="E16" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>233</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H16" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","Descrição ":"IFSC","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672"SentidoPonto":"Bairro",","Comentario":"IFSC","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10319,17 +10325,17 @@
         <v>-50.362879999999997</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10343,17 +10349,17 @@
         <v>-50.360770000000002</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10367,17 +10373,17 @@
         <v>-50.360370000000003</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10391,17 +10397,17 @@
         <v>-50.364640000000001</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H20" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10415,17 +10421,17 @@
         <v>-50.368810000000003</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H21" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -10439,17 +10445,17 @@
         <v>-50.373460000000001</v>
       </c>
       <c r="E22" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>237</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","Descrição ":"Ponto virtual. Próx. retifica Motocar","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346"SentidoPonto":"Bairro",","Comentario":"Ponto virtual. Próx. retifica Motocar","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10463,17 +10469,17 @@
         <v>-50.378329999999998</v>
       </c>
       <c r="E23" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10487,17 +10493,17 @@
         <v>-50.378</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H24" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10511,17 +10517,17 @@
         <v>-50.378239999999998</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H25" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10535,17 +10541,17 @@
         <v>-50.37876</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H26" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10559,17 +10565,17 @@
         <v>-50.382820000000002</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H27" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10583,17 +10589,17 @@
         <v>-50.384556000000003</v>
       </c>
       <c r="E28" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="69" t="s">
-        <v>242</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H28" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10607,17 +10613,17 @@
         <v>-50.383465000000001</v>
       </c>
       <c r="E29" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="69" t="s">
-        <v>242</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10631,17 +10637,17 @@
         <v>-50.379910000000002</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H30" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10655,17 +10661,17 @@
         <v>-50.376750000000001</v>
       </c>
       <c r="E31" s="72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H31" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10679,17 +10685,17 @@
         <v>-50.377719999999997</v>
       </c>
       <c r="E32" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H32" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10703,17 +10709,17 @@
         <v>-50.377130000000001</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H33" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","Descrição ":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713"SentidoPonto":"Praça",","Comentario":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -10727,17 +10733,17 @@
         <v>-50.378320000000002</v>
       </c>
       <c r="E34" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H34" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -10751,17 +10757,17 @@
         <v>-50.372929999999997</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H35" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10775,17 +10781,17 @@
         <v>-50.364379999999997</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H36" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","Descrição ":"Ponto virtual, próximo ao Procopiak","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438"SentidoPonto":"Praça",","Comentario":"Ponto virtual, próximo ao Procopiak","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10799,17 +10805,17 @@
         <v>-50.36262</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H37" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10823,17 +10829,17 @@
         <v>-50.366849999999999</v>
       </c>
       <c r="E38" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H38" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -10847,17 +10853,17 @@
         <v>-50.369019999999999</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H39" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -10871,17 +10877,17 @@
         <v>-50.371997999999998</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H40" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -10895,17 +10901,17 @@
         <v>-50.374890000000001</v>
       </c>
       <c r="E41" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H41" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10919,17 +10925,17 @@
         <v>-50.378974999999997</v>
       </c>
       <c r="E42" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H42" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","Descrição ":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10943,17 +10949,17 @@
         <v>-50.38373</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H43" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","Descrição ":"Ponto virtual. Próximo ao posto Guapo.","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373"SentidoPonto":"Praça",","Comentario":"Ponto virtual. Próximo ao posto Guapo.","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10970,25 +10976,25 @@
         <v>-50.387230000000002</v>
       </c>
       <c r="E44" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="69" t="s">
         <v>229</v>
-      </c>
-      <c r="F44" s="69" t="s">
-        <v>230</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H44" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","Descrição ":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C45" s="1">
         <v>-26.178017000000001</v>
@@ -10997,22 +11003,22 @@
         <v>-50.390712999999998</v>
       </c>
       <c r="E45" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H45" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="1">
         <v>-26.180969999999999</v>
@@ -11021,22 +11027,22 @@
         <v>-50.394170000000003</v>
       </c>
       <c r="E46" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="69" t="s">
-        <v>230</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H46" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="1">
         <v>-26.186959999999999</v>
@@ -11045,22 +11051,22 @@
         <v>-50.399859999999997</v>
       </c>
       <c r="E47" s="72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H47" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="1">
         <v>-26.187950000000001</v>
@@ -11069,22 +11075,22 @@
         <v>-50.401359999999997</v>
       </c>
       <c r="E48" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H48" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C49" s="1">
         <v>-26.187519999999999</v>
@@ -11093,22 +11099,22 @@
         <v>-50.406700000000001</v>
       </c>
       <c r="E49" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H49" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" s="1">
         <v>-26.188639999999999</v>
@@ -11117,22 +11123,22 @@
         <v>-50.409300000000002</v>
       </c>
       <c r="E50" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H50" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C51" s="1">
         <v>-26.189450000000001</v>
@@ -11141,22 +11147,22 @@
         <v>-50.413330000000002</v>
       </c>
       <c r="E51" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C52" s="1">
         <v>-26.19322</v>
@@ -11165,22 +11171,22 @@
         <v>-50.417479999999998</v>
       </c>
       <c r="E52" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H52" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" s="1">
         <v>-26.204609999999999</v>
@@ -11189,22 +11195,22 @@
         <v>-50.421570000000003</v>
       </c>
       <c r="E53" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H53" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C54" s="1">
         <v>-26.203119999999998</v>
@@ -11213,22 +11219,22 @@
         <v>-50.421210000000002</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H54" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C55" s="1">
         <v>-26.19434</v>
@@ -11237,22 +11243,22 @@
         <v>-50.419649999999997</v>
       </c>
       <c r="E55" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H55" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="1">
         <v>-26.19323</v>
@@ -11261,22 +11267,22 @@
         <v>-50.417290000000001</v>
       </c>
       <c r="E56" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H56" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="1">
         <v>-26.188700000000001</v>
@@ -11285,22 +11291,22 @@
         <v>-50.409199999999998</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H57" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1">
         <v>-26.187570000000001</v>
@@ -11309,22 +11315,22 @@
         <v>-50.40652</v>
       </c>
       <c r="E58" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H58" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="1">
         <v>-26.188089999999999</v>
@@ -11333,22 +11339,22 @@
         <v>-50.401350000000001</v>
       </c>
       <c r="E59" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H59" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C60" s="1">
         <v>-26.18695</v>
@@ -11357,22 +11363,22 @@
         <v>-50.399769999999997</v>
       </c>
       <c r="E60" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H60" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" s="1">
         <v>-26.180299999999999</v>
@@ -11381,22 +11387,22 @@
         <v>-50.393520000000002</v>
       </c>
       <c r="E61" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H61" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="1">
         <v>-26.177446</v>
@@ -11405,22 +11411,22 @@
         <v>-50.391396</v>
       </c>
       <c r="E62" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H62" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C63" s="1">
         <v>-26.173190000000002</v>
@@ -11429,22 +11435,22 @@
         <v>-50.389780000000002</v>
       </c>
       <c r="E63" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H63" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C64" s="1">
         <v>-26.172560000000001</v>
@@ -11453,22 +11459,22 @@
         <v>-50.390729999999998</v>
       </c>
       <c r="E64" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H64" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1">
         <v>-26.17127</v>
@@ -11477,22 +11483,22 @@
         <v>-50.394269999999999</v>
       </c>
       <c r="E65" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C66" s="1">
         <v>-26.168859999999999</v>
@@ -11501,22 +11507,22 @@
         <v>-50.399540000000002</v>
       </c>
       <c r="E66" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H66" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C67" s="1">
         <v>-26.166733000000001</v>
@@ -11525,22 +11531,22 @@
         <v>-50.399006</v>
       </c>
       <c r="E67" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H67" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68" s="1">
         <v>-26.16394</v>
@@ -11549,22 +11555,22 @@
         <v>-50.40175</v>
       </c>
       <c r="E68" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H68" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="1">
         <v>-26.163309999999999</v>
@@ -11573,22 +11579,22 @@
         <v>-50.404699999999998</v>
       </c>
       <c r="E69" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H69" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1">
         <v>-26.162870000000002</v>
@@ -11597,22 +11603,22 @@
         <v>-50.406640000000003</v>
       </c>
       <c r="E70" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H70" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="1">
         <v>-26.164719999999999</v>
@@ -11621,22 +11627,22 @@
         <v>-50.407290000000003</v>
       </c>
       <c r="E71" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H71" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" s="1">
         <v>-26.16797</v>
@@ -11645,22 +11651,22 @@
         <v>-50.407739999999997</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C73" s="1">
         <v>-26.168859999999999</v>
@@ -11669,22 +11675,22 @@
         <v>-50.404670000000003</v>
       </c>
       <c r="E73" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H73" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" s="1">
         <v>-26.16996</v>
@@ -11693,22 +11699,22 @@
         <v>-50.400370000000002</v>
       </c>
       <c r="E74" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H74" s="66" t="str">
-        <f t="shared" ref="H74:H116" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B74&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C74&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D74&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F74&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G74&amp;$J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <f t="shared" si="0"/>
+        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" s="1">
         <v>-26.17062</v>
@@ -11717,22 +11723,22 @@
         <v>-50.397359999999999</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H75" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <f t="shared" ref="H75:H116" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C76" s="1">
         <v>-26.172840000000001</v>
@@ -11741,22 +11747,22 @@
         <v>-50.394129999999997</v>
       </c>
       <c r="E76" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H76" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" s="1">
         <v>-26.17718</v>
@@ -11765,22 +11771,22 @@
         <v>-50.394880000000001</v>
       </c>
       <c r="E77" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H77" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C78" s="1">
         <v>-26.182220000000001</v>
@@ -11789,22 +11795,22 @@
         <v>-50.398879999999998</v>
       </c>
       <c r="E78" s="72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H78" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C79" s="1">
         <v>-26.183579999999999</v>
@@ -11813,22 +11819,22 @@
         <v>-50.400790000000001</v>
       </c>
       <c r="E79" s="72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H79" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C80" s="1">
         <v>-26.181429999999999</v>
@@ -11837,22 +11843,22 @@
         <v>-50.402760000000001</v>
       </c>
       <c r="E80" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H80" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="1">
         <v>-26.174969999999998</v>
@@ -11861,22 +11867,22 @@
         <v>-50.40569</v>
       </c>
       <c r="E81" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H81" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C82" s="1">
         <v>-26.17408</v>
@@ -11885,22 +11891,22 @@
         <v>-50.410350000000001</v>
       </c>
       <c r="E82" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H82" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C83" s="1">
         <v>-26.1723</v>
@@ -11909,22 +11915,22 @@
         <v>-50.411960000000001</v>
       </c>
       <c r="E83" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H83" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C84" s="1">
         <v>-26.16656</v>
@@ -11933,22 +11939,22 @@
         <v>-50.417029999999997</v>
       </c>
       <c r="E84" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C85" s="1">
         <v>-26.166910000000001</v>
@@ -11957,22 +11963,22 @@
         <v>-50.421939999999999</v>
       </c>
       <c r="E85" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H85" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C86" s="1">
         <v>-26.16638</v>
@@ -11981,22 +11987,22 @@
         <v>-50.426310000000001</v>
       </c>
       <c r="E86" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H86" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C87" s="1">
         <v>-26.167439999999999</v>
@@ -12005,22 +12011,22 @@
         <v>-50.427199999999999</v>
       </c>
       <c r="E87" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F87" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H87" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C88" s="1">
         <v>-26.167280000000002</v>
@@ -12029,22 +12035,22 @@
         <v>-50.4251</v>
       </c>
       <c r="E88" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F88" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H88" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C89" s="1">
         <v>-26.166640000000001</v>
@@ -12053,22 +12059,22 @@
         <v>-50.41724</v>
       </c>
       <c r="E89" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H89" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C90" s="1">
         <v>-26.16677</v>
@@ -12077,22 +12083,22 @@
         <v>-50.414969999999997</v>
       </c>
       <c r="E90" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F90" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H90" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C91" s="1">
         <v>-26.167179999999998</v>
@@ -12101,22 +12107,22 @@
         <v>-50.411879999999996</v>
       </c>
       <c r="E91" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F91" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H91" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92" s="1">
         <f>VLOOKUP($B92,$B$10:$D$115,2)</f>
@@ -12135,16 +12141,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H92" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C93" s="1">
         <f>VLOOKUP($B93,$B$10:$D$115,2)</f>
@@ -12163,16 +12169,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H93" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1">
         <v>-26.16968</v>
@@ -12181,20 +12187,20 @@
         <v>-50.401719999999997</v>
       </c>
       <c r="E94" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H94" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172","Descrição ":"","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172"SentidoPonto":"Bairro",","Comentario":"","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C95" s="1">
         <f>VLOOKUP($B95,$B$10:$D$115,2)</f>
@@ -12213,16 +12219,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H95" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96" s="1">
         <f>VLOOKUP($B96,$B$10:$D$115,2)</f>
@@ -12241,16 +12247,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H96" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" s="1">
         <v>-26.174779999999998</v>
@@ -12264,16 +12270,16 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H97" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 84","Latitude":"-26.17478","Longitude":"-50.39107","Descrição ":"","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 84","Latitude":"-26.17478","Longitude":"-50.39107"SentidoPonto":"Bairro",","Comentario":"","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" s="1">
         <f>VLOOKUP($B98,$B$10:$D$115,2)</f>
@@ -12292,16 +12298,16 @@
         <v>Ponto Físico</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H98" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","Descrição ":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" s="1">
         <v>-26.179960000000001</v>
@@ -12310,23 +12316,23 @@
         <v>-50.389940000000003</v>
       </c>
       <c r="E99" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" ref="F99:F114" ca="1" si="2">VLOOKUP($B99,$B$10:$F$115,5)</f>
         <v>Ponto Físico</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H99" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="1">
         <v>-26.181999999999999</v>
@@ -12335,23 +12341,23 @@
         <v>-50.386560000000003</v>
       </c>
       <c r="E100" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H100" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="1">
         <v>-26.183869999999999</v>
@@ -12360,23 +12366,23 @@
         <v>-50.383459999999999</v>
       </c>
       <c r="E101" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H101" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C102" s="1">
         <v>-26.18675</v>
@@ -12385,23 +12391,23 @@
         <v>-50.379379999999998</v>
       </c>
       <c r="E102" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H102" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" s="1">
         <v>-26.1891</v>
@@ -12410,23 +12416,23 @@
         <v>-50.376390000000001</v>
       </c>
       <c r="E103" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H103" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="1">
         <v>-26.19218</v>
@@ -12435,23 +12441,23 @@
         <v>-50.372340000000001</v>
       </c>
       <c r="E104" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H104" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C105" s="1">
         <v>-26.195039999999999</v>
@@ -12460,23 +12466,23 @@
         <v>-50.369480000000003</v>
       </c>
       <c r="E105" s="69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H105" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C106" s="1">
         <v>-26.196850000000001</v>
@@ -12485,23 +12491,23 @@
         <v>-50.370289999999997</v>
       </c>
       <c r="E106" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H106" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C107" s="1">
         <v>-26.193449999999999</v>
@@ -12510,23 +12516,23 @@
         <v>-50.370649999999998</v>
       </c>
       <c r="E107" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H107" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C108" s="1">
         <v>-26.190660000000001</v>
@@ -12535,23 +12541,23 @@
         <v>-50.37415</v>
       </c>
       <c r="E108" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H108" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C109" s="1">
         <v>-26.187889999999999</v>
@@ -12560,23 +12566,23 @@
         <v>-50.37771</v>
       </c>
       <c r="E109" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H109" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C110" s="1">
         <v>-26.185189999999999</v>
@@ -12585,23 +12591,23 @@
         <v>-50.377160000000003</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H110" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C111" s="1">
         <v>-26.179639999999999</v>
@@ -12610,23 +12616,23 @@
         <v>-50.37726</v>
       </c>
       <c r="E111" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H111" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C112" s="1">
         <v>-26.177910000000001</v>
@@ -12635,23 +12641,23 @@
         <v>-50.379660000000001</v>
       </c>
       <c r="E112" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Ponto Físico</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H112" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C113" s="1">
         <v>-26.18085</v>
@@ -12660,23 +12666,23 @@
         <v>-50.384500000000003</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ponto virtual</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H113" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C114" s="1">
         <v>-26.18093</v>
@@ -12685,23 +12691,23 @@
         <v>-50.388069999999999</v>
       </c>
       <c r="E114" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Praça Lauro Mueller</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H114" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","Descrição ":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1">
         <f>VLOOKUP($B115,$B$10:$D$115,2)</f>
@@ -12720,16 +12726,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H115" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","Descrição ":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C116" s="69" t="str">
         <f>VLOOKUP($B116,$B$10:$F$115,5)</f>
@@ -12748,11 +12754,11 @@
         <v>Praça Lauro Mueller</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H116" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 1 ","Latitude":"Praça Lauro Mueller","Longitude":"Praça Lauro Mueller","Descrição ":"Praça Lauro Mueller","SentidoPonto":"Ponto Final"},</v>
+        <v>{"PontoID":"Ponto 1 ","Latitude":"Praça Lauro Mueller","Longitude":"Praça Lauro Mueller"SentidoPonto":"Ponto Final",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Ponto Final"},</v>
       </c>
     </row>
   </sheetData>
@@ -12824,7 +12830,7 @@
     </row>
     <row r="12" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="77" t="str">
         <f>F11&amp;", "&amp;E12</f>
@@ -12833,7 +12839,7 @@
     </row>
     <row r="13" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E13" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="77" t="str">
         <f t="shared" ref="F13:F48" si="0">F12&amp;", "&amp;E13</f>
@@ -12842,7 +12848,7 @@
     </row>
     <row r="14" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E14" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12851,7 +12857,7 @@
     </row>
     <row r="15" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E15" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12860,7 +12866,7 @@
     </row>
     <row r="16" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E16" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F16" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12869,7 +12875,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12878,7 +12884,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12887,7 +12893,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12896,7 +12902,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F20" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12905,7 +12911,7 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F21" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12914,7 +12920,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F22" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12923,7 +12929,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F23" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12932,7 +12938,7 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F24" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12941,7 +12947,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F25" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12950,7 +12956,7 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12959,7 +12965,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F27" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12968,7 +12974,7 @@
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F28" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12977,7 +12983,7 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F29" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12986,7 +12992,7 @@
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12995,7 +13001,7 @@
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13004,7 +13010,7 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F32" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13013,7 +13019,7 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F33" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13022,7 +13028,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13031,7 +13037,7 @@
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F35" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13040,7 +13046,7 @@
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F36" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13049,7 +13055,7 @@
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F37" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13058,7 +13064,7 @@
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F38" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13067,7 +13073,7 @@
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13076,7 +13082,7 @@
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F40" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13085,7 +13091,7 @@
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13094,7 +13100,7 @@
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F42" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13103,7 +13109,7 @@
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13112,7 +13118,7 @@
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F44" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13121,7 +13127,7 @@
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F45" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13130,7 +13136,7 @@
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F46" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13139,7 +13145,7 @@
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F47" s="77" t="str">
         <f t="shared" si="0"/>

--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D6023-985F-4F62-BB9B-11AA8F497D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A3551-E2BD-4DE3-8B57-3437FCEC7D7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10068,7 +10068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:H116"/>
     </sheetView>
   </sheetViews>
@@ -10166,8 +10166,8 @@
         <v>227</v>
       </c>
       <c r="H10" s="66" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -10190,8 +10190,8 @@
         <v>227</v>
       </c>
       <c r="H11" s="66" t="str">
-        <f t="shared" ref="H11:H74" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <f t="shared" ref="H11:H74" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="H12" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="H13" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="H14" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="H15" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H16" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672"SentidoPonto":"Bairro",","Comentario":"IFSC","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","SentidoPonto":"Bairro","Comentario":"IFSC"},</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="H17" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H18" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="H19" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="H20" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H21" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="H22" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346"SentidoPonto":"Bairro",","Comentario":"Ponto virtual. Próx. retifica Motocar","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","SentidoPonto":"Bairro","Comentario":"Ponto virtual. Próx. retifica Motocar"},</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="H23" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="H24" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="H25" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H26" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="H27" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="H28" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="H29" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="H30" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H31" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="H32" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="H33" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713"SentidoPonto":"Praça",","Comentario":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","SentidoPonto":"Praça","Comentario":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero"},</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="H34" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="H35" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H36" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438"SentidoPonto":"Praça",","Comentario":"Ponto virtual, próximo ao Procopiak","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","SentidoPonto":"Praça","Comentario":"Ponto virtual, próximo ao Procopiak"},</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="H37" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="H38" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="H39" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="H40" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H41" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="H42" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975"SentidoPonto":"Praça",","Comentario":"Ponto Físico","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="H43" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373"SentidoPonto":"Praça",","Comentario":"Ponto virtual. Próximo ao posto Guapo.","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","SentidoPonto":"Praça","Comentario":"Ponto virtual. Próximo ao posto Guapo."},</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="H44" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723"SentidoPonto":"Praça",","Comentario":"Ponto virtual","SentidoPonto":"Praça"},</v>
+        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="H45" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="H46" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="H47" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="H48" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="H49" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="H50" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="H51" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="H52" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="H53" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="H54" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="H55" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="H56" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="H57" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="H58" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="H59" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="H60" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="H61" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="H62" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="H63" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="H64" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="H65" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="H66" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="H67" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="H68" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="H69" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="H70" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="H71" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="H72" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="H73" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="H74" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -11732,8 +11732,8 @@
         <v>227</v>
       </c>
       <c r="H75" s="66" t="str">
-        <f t="shared" ref="H75:H116" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;$L$8&amp;J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <f t="shared" ref="H75:H116" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="H76" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="H77" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="H78" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="H79" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="H80" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="H81" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="H82" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="H83" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="H84" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="H85" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="H86" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="H87" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H88" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="H89" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="H90" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="H91" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="H92" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="H93" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="H94" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172"SentidoPonto":"Bairro",","Comentario":"","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172","SentidoPonto":"Bairro","Comentario":""},</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="H95" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="H96" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="H97" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 84","Latitude":"-26.17478","Longitude":"-50.39107"SentidoPonto":"Bairro",","Comentario":"","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 84","Latitude":"-26.17478","Longitude":"-50.39107","SentidoPonto":"Bairro","Comentario":""},</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="H98" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713"SentidoPonto":"Bairro",","Comentario":"Ponto Físico","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="H99" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="H100" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="H101" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="H102" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="H103" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="H104" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="H105" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="H106" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="H107" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="H108" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="H109" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="H110" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="H111" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="H112" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="H113" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="H114" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807"SentidoPonto":"Bairro",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12730,7 +12730,7 @@
       </c>
       <c r="H115" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396"SentidoPonto":"Bairro",","Comentario":"Ponto virtual","SentidoPonto":"Bairro"},</v>
+        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="H116" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 1 ","Latitude":"Praça Lauro Mueller","Longitude":"Praça Lauro Mueller"SentidoPonto":"Ponto Final",","Comentario":"Praça Lauro Mueller","SentidoPonto":"Ponto Final"},</v>
+        <v>{"PontoID":"Ponto 1 ","Latitude":"Praça Lauro Mueller","Longitude":"Praça Lauro Mueller","SentidoPonto":"Ponto Final","Comentario":"Praça Lauro Mueller"},</v>
       </c>
     </row>
   </sheetData>

--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A3551-E2BD-4DE3-8B57-3437FCEC7D7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA2C25-82F7-4D68-9F1D-EF812BD65D4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="351">
   <si>
     <t>Semana</t>
   </si>
@@ -1072,12 +1072,6 @@
     <t>R. Paul Harris</t>
   </si>
   <si>
-    <t xml:space="preserve">Ponto 1 </t>
-  </si>
-  <si>
-    <t>Ponto Final</t>
-  </si>
-  <si>
     <t>Cohab I, II</t>
   </si>
   <si>
@@ -1091,6 +1085,9 @@
   </si>
   <si>
     <t>Comentario</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -6389,7 +6386,7 @@
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>114</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>114</v>
@@ -6433,7 +6430,7 @@
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>114</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>114</v>
@@ -6477,7 +6474,7 @@
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -6499,7 +6496,7 @@
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>114</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>114</v>
@@ -6543,7 +6540,7 @@
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>114</v>
@@ -6565,7 +6562,7 @@
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>114</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>114</v>
@@ -6609,7 +6606,7 @@
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>114</v>
@@ -6631,7 +6628,7 @@
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>114</v>
@@ -6653,7 +6650,7 @@
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>114</v>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>114</v>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>114</v>
@@ -6718,7 +6715,7 @@
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>114</v>
@@ -6739,7 +6736,7 @@
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>114</v>
@@ -6760,7 +6757,7 @@
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>114</v>
@@ -6781,7 +6778,7 @@
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>114</v>
@@ -6802,7 +6799,7 @@
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>114</v>
@@ -6823,7 +6820,7 @@
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>114</v>
@@ -6844,7 +6841,7 @@
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>114</v>
@@ -6865,7 +6862,7 @@
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>114</v>
@@ -6886,7 +6883,7 @@
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>114</v>
@@ -6907,7 +6904,7 @@
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>114</v>
@@ -6928,7 +6925,7 @@
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>114</v>
@@ -6949,7 +6946,7 @@
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>114</v>
@@ -6970,7 +6967,7 @@
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>114</v>
@@ -6991,7 +6988,7 @@
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>114</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>114</v>
@@ -7033,7 +7030,7 @@
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>114</v>
@@ -7054,7 +7051,7 @@
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>114</v>
@@ -9033,7 +9030,7 @@
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>181</v>
@@ -9042,10 +9039,10 @@
         <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G85" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
@@ -9060,7 +9057,7 @@
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>181</v>
@@ -9069,7 +9066,7 @@
         <v>284</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G86" s="69" t="s">
         <v>48</v>
@@ -9087,7 +9084,7 @@
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>181</v>
@@ -9096,7 +9093,7 @@
         <v>285</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G87" s="69" t="s">
         <v>48</v>
@@ -9114,7 +9111,7 @@
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>181</v>
@@ -9123,7 +9120,7 @@
         <v>286</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G88" s="69" t="s">
         <v>48</v>
@@ -9141,7 +9138,7 @@
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>181</v>
@@ -9150,7 +9147,7 @@
         <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G89" s="69" t="s">
         <v>48</v>
@@ -9168,7 +9165,7 @@
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>181</v>
@@ -9177,7 +9174,7 @@
         <v>288</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G90" s="69" t="s">
         <v>48</v>
@@ -9195,7 +9192,7 @@
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>181</v>
@@ -9204,7 +9201,7 @@
         <v>289</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G91" s="69" t="s">
         <v>48</v>
@@ -9222,7 +9219,7 @@
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>181</v>
@@ -9231,7 +9228,7 @@
         <v>290</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G92" s="69" t="s">
         <v>48</v>
@@ -9249,7 +9246,7 @@
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
@@ -9258,7 +9255,7 @@
         <v>303</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G93" s="69" t="s">
         <v>48</v>
@@ -9276,7 +9273,7 @@
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -9285,7 +9282,7 @@
         <v>304</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>48</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -9312,7 +9309,7 @@
         <v>305</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G95" s="69" t="s">
         <v>48</v>
@@ -9330,7 +9327,7 @@
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>181</v>
@@ -9339,7 +9336,7 @@
         <v>306</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G96" s="69" t="s">
         <v>48</v>
@@ -9357,7 +9354,7 @@
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>181</v>
@@ -9366,7 +9363,7 @@
         <v>307</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G97" s="69" t="s">
         <v>48</v>
@@ -9384,7 +9381,7 @@
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>181</v>
@@ -9393,7 +9390,7 @@
         <v>308</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G98" s="69" t="s">
         <v>48</v>
@@ -9411,7 +9408,7 @@
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>181</v>
@@ -9420,7 +9417,7 @@
         <v>309</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G99" s="69" t="s">
         <v>48</v>
@@ -9438,7 +9435,7 @@
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>181</v>
@@ -9447,7 +9444,7 @@
         <v>310</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G100" s="69" t="s">
         <v>48</v>
@@ -9465,7 +9462,7 @@
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>181</v>
@@ -9474,7 +9471,7 @@
         <v>280</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G101" s="69" t="s">
         <v>48</v>
@@ -9492,7 +9489,7 @@
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>181</v>
@@ -9501,7 +9498,7 @@
         <v>311</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G102" s="69" t="s">
         <v>48</v>
@@ -9519,7 +9516,7 @@
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>181</v>
@@ -9528,7 +9525,7 @@
         <v>312</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G103" s="69" t="s">
         <v>48</v>
@@ -9546,7 +9543,7 @@
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>181</v>
@@ -9555,7 +9552,7 @@
         <v>248</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G104" s="69" t="s">
         <v>48</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>181</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>181</v>
@@ -9627,7 +9624,7 @@
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>181</v>
@@ -9654,7 +9651,7 @@
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>181</v>
@@ -9681,7 +9678,7 @@
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>181</v>
@@ -9708,7 +9705,7 @@
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>181</v>
@@ -9735,7 +9732,7 @@
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>181</v>
@@ -9762,7 +9759,7 @@
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>181</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>181</v>
@@ -9816,7 +9813,7 @@
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>181</v>
@@ -9843,7 +9840,7 @@
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>181</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>181</v>
@@ -9897,7 +9894,7 @@
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>181</v>
@@ -9924,7 +9921,7 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>181</v>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>181</v>
@@ -9978,7 +9975,7 @@
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>181</v>
@@ -10005,7 +10002,7 @@
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>181</v>
@@ -10032,7 +10029,7 @@
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>181</v>
@@ -10066,10 +10063,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:AMK116"/>
+  <dimension ref="A3:AMK115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H116"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,7 +10134,7 @@
         <v>224</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>225</v>
@@ -11732,7 +11729,7 @@
         <v>227</v>
       </c>
       <c r="H75" s="66" t="str">
-        <f t="shared" ref="H75:H116" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;M$8&amp;L$8</f>
+        <f t="shared" ref="H75:H113" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;M$8&amp;L$8</f>
         <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
@@ -12125,20 +12122,19 @@
         <v>279</v>
       </c>
       <c r="C92" s="1">
-        <f>VLOOKUP($B92,$B$10:$D$115,2)</f>
+        <f>VLOOKUP($B92,$B$10:$D$114,2)</f>
         <v>-26.16797</v>
       </c>
       <c r="D92" s="1">
-        <f>VLOOKUP($B92,$B$10:$D$115,3)</f>
+        <f>VLOOKUP($B92,$B$10:$D$114,3)</f>
         <v>-50.407739999999997</v>
       </c>
       <c r="E92" s="69" t="str">
-        <f>VLOOKUP($B92,$B$10:$F$115,4)</f>
+        <f>VLOOKUP($B92,$B$10:$F$114,4)</f>
         <v>Av. Sen. Ivo D'Aquino</v>
       </c>
-      <c r="F92" s="1" t="str">
-        <f>VLOOKUP($B92,$B$10:$F$115,5)</f>
-        <v>Ponto virtual</v>
+      <c r="F92" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>227</v>
@@ -12153,20 +12149,19 @@
         <v>280</v>
       </c>
       <c r="C93" s="1">
-        <f>VLOOKUP($B93,$B$10:$D$115,2)</f>
+        <f>VLOOKUP($B93,$B$10:$D$114,2)</f>
         <v>-26.168859999999999</v>
       </c>
       <c r="D93" s="1">
-        <f>VLOOKUP($B93,$B$10:$D$115,3)</f>
+        <f>VLOOKUP($B93,$B$10:$D$114,3)</f>
         <v>-50.404670000000003</v>
       </c>
       <c r="E93" s="69" t="str">
-        <f>VLOOKUP($B93,$B$10:$F$115,4)</f>
+        <f>VLOOKUP($B93,$B$10:$F$114,4)</f>
         <v>R. Roberto Eike</v>
       </c>
-      <c r="F93" s="1" t="str">
-        <f>VLOOKUP($B93,$B$10:$F$115,5)</f>
-        <v>Ponto virtual</v>
+      <c r="F93" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>227</v>
@@ -12203,19 +12198,19 @@
         <v>282</v>
       </c>
       <c r="C95" s="1">
-        <f>VLOOKUP($B95,$B$10:$D$115,2)</f>
+        <f>VLOOKUP($B95,$B$10:$D$114,2)</f>
         <v>-26.17062</v>
       </c>
       <c r="D95" s="1">
-        <f>VLOOKUP($B95,$B$10:$D$115,3)</f>
+        <f>VLOOKUP($B95,$B$10:$D$114,3)</f>
         <v>-50.397359999999999</v>
       </c>
       <c r="E95" s="69" t="str">
-        <f>VLOOKUP($B95,$B$10:$F$115,4)</f>
+        <f>VLOOKUP($B95,$B$10:$F$114,4)</f>
         <v>R. Roberto Eike</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>VLOOKUP($B95,$B$10:$F$115,5)</f>
+        <f>VLOOKUP($B95,$B$10:$F$114,5)</f>
         <v>Ponto virtual</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -12231,19 +12226,19 @@
         <v>283</v>
       </c>
       <c r="C96" s="1">
-        <f>VLOOKUP($B96,$B$10:$D$115,2)</f>
+        <f>VLOOKUP($B96,$B$10:$D$114,2)</f>
         <v>-26.172840000000001</v>
       </c>
       <c r="D96" s="1">
-        <f>VLOOKUP($B96,$B$10:$D$115,3)</f>
+        <f>VLOOKUP($B96,$B$10:$D$114,3)</f>
         <v>-50.394129999999997</v>
       </c>
       <c r="E96" s="69" t="str">
-        <f>VLOOKUP($B96,$B$10:$F$115,4)</f>
+        <f>VLOOKUP($B96,$B$10:$F$114,4)</f>
         <v>R. Getúlio Vargas</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>VLOOKUP($B96,$B$10:$F$115,5)</f>
+        <f>VLOOKUP($B96,$B$10:$F$114,5)</f>
         <v>Ponto virtual</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -12265,501 +12260,415 @@
         <v>-50.391069999999999</v>
       </c>
       <c r="E97" s="69" t="str">
-        <f>VLOOKUP($B97,$B$10:$F$115,4)</f>
+        <f ca="1">VLOOKUP($B97,$B$10:$F$114,4)</f>
         <v>R. Frei Menandro Kamps</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="str">
+        <f ca="1">VLOOKUP($B97,$B$10:$F$114,5)</f>
+        <v>Ponto virtual</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H97" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 84","Latitude":"-26.17478","Longitude":"-50.39107","SentidoPonto":"Bairro","Comentario":""},</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="C98" s="1">
-        <f>VLOOKUP($B98,$B$10:$D$115,2)</f>
-        <v>-26.178017000000001</v>
+        <v>-26.179960000000001</v>
       </c>
       <c r="D98" s="1">
-        <f>VLOOKUP($B98,$B$10:$D$115,3)</f>
-        <v>-50.390712999999998</v>
-      </c>
-      <c r="E98" s="69" t="str">
-        <f>VLOOKUP($B98,$B$10:$F$115,4)</f>
-        <v>R. Frei Menandro Kamps</v>
+        <v>-50.389940000000003</v>
+      </c>
+      <c r="E98" s="69" t="s">
+        <v>336</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>VLOOKUP($B98,$B$10:$F$115,5)</f>
+        <f ca="1">VLOOKUP($B98,$B$10:$F$114,5)</f>
         <v>Ponto Físico</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H98" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C99" s="1">
-        <v>-26.179960000000001</v>
+        <v>-26.181999999999999</v>
       </c>
       <c r="D99" s="1">
-        <v>-50.389940000000003</v>
+        <v>-50.386560000000003</v>
       </c>
       <c r="E99" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="F99" s="1" t="str">
-        <f t="shared" ref="F99:F114" ca="1" si="2">VLOOKUP($B99,$B$10:$F$115,5)</f>
-        <v>Ponto Físico</v>
+      <c r="F99" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H99" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 86","Latitude":"-26.182","Longitude":"-50.38656","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C100" s="1">
-        <v>-26.181999999999999</v>
+        <v>-26.183869999999999</v>
       </c>
       <c r="D100" s="1">
-        <v>-50.386560000000003</v>
+        <v>-50.383459999999999</v>
       </c>
       <c r="E100" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="F100" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+      <c r="F100" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H100" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 87","Latitude":"-26.18387","Longitude":"-50.38346","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C101" s="1">
-        <v>-26.183869999999999</v>
+        <v>-26.18675</v>
       </c>
       <c r="D101" s="1">
-        <v>-50.383459999999999</v>
+        <v>-50.379379999999998</v>
       </c>
       <c r="E101" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="F101" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>337</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H101" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 88","Latitude":"-26.18675","Longitude":"-50.37938","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C102" s="1">
-        <v>-26.18675</v>
+        <v>-26.1891</v>
       </c>
       <c r="D102" s="1">
-        <v>-50.379379999999998</v>
+        <v>-50.376390000000001</v>
       </c>
       <c r="E102" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="F102" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+      <c r="F102" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H102" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 89","Latitude":"-26.1891","Longitude":"-50.37639","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C103" s="1">
-        <v>-26.1891</v>
+        <v>-26.19218</v>
       </c>
       <c r="D103" s="1">
-        <v>-50.376390000000001</v>
+        <v>-50.372340000000001</v>
       </c>
       <c r="E103" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>338</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H103" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 90","Latitude":"-26.19218","Longitude":"-50.37234","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C104" s="1">
-        <v>-26.19218</v>
+        <v>-26.195039999999999</v>
       </c>
       <c r="D104" s="1">
-        <v>-50.372340000000001</v>
+        <v>-50.369480000000003</v>
       </c>
       <c r="E104" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>339</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H104" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 91","Latitude":"-26.19504","Longitude":"-50.36948","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C105" s="1">
-        <v>-26.195039999999999</v>
+        <v>-26.196850000000001</v>
       </c>
       <c r="D105" s="1">
-        <v>-50.369480000000003</v>
+        <v>-50.370289999999997</v>
       </c>
       <c r="E105" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>340</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H105" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 92","Latitude":"-26.19685","Longitude":"-50.37029","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C106" s="1">
-        <v>-26.196850000000001</v>
+        <v>-26.193449999999999</v>
       </c>
       <c r="D106" s="1">
-        <v>-50.370289999999997</v>
+        <v>-50.370649999999998</v>
       </c>
       <c r="E106" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>338</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H106" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 93","Latitude":"-26.19345","Longitude":"-50.37065","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C107" s="1">
-        <v>-26.193449999999999</v>
+        <v>-26.190660000000001</v>
       </c>
       <c r="D107" s="1">
-        <v>-50.370649999999998</v>
+        <v>-50.37415</v>
       </c>
       <c r="E107" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F107" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+      <c r="F107" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H107" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 94","Latitude":"-26.19066","Longitude":"-50.37415","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C108" s="1">
-        <v>-26.190660000000001</v>
+        <v>-26.187889999999999</v>
       </c>
       <c r="D108" s="1">
-        <v>-50.37415</v>
+        <v>-50.37771</v>
       </c>
       <c r="E108" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>337</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H108" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 95","Latitude":"-26.18789","Longitude":"-50.37771","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" s="1">
-        <v>-26.187889999999999</v>
+        <v>-26.185189999999999</v>
       </c>
       <c r="D109" s="1">
-        <v>-50.37771</v>
+        <v>-50.377160000000003</v>
       </c>
       <c r="E109" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="F109" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>341</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H109" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 96","Latitude":"-26.18519","Longitude":"-50.37716","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C110" s="1">
-        <v>-26.185189999999999</v>
+        <v>-26.179639999999999</v>
       </c>
       <c r="D110" s="1">
-        <v>-50.377160000000003</v>
+        <v>-50.37726</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="F110" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>342</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H110" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 97","Latitude":"-26.17964","Longitude":"-50.37726","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C111" s="1">
-        <v>-26.179639999999999</v>
+        <v>-26.177910000000001</v>
       </c>
       <c r="D111" s="1">
-        <v>-50.37726</v>
+        <v>-50.379660000000001</v>
       </c>
       <c r="E111" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>343</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H111" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 98","Latitude":"-26.17791","Longitude":"-50.37966","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C112" s="1">
-        <v>-26.177910000000001</v>
+        <v>-26.18085</v>
       </c>
       <c r="D112" s="1">
-        <v>-50.379660000000001</v>
+        <v>-50.384500000000003</v>
       </c>
       <c r="E112" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="F112" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ponto Físico</v>
+        <v>344</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H112" s="66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f t="shared" si="1"/>
+        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>327</v>
+      <c r="B113" s="75" t="s">
+        <v>328</v>
       </c>
       <c r="C113" s="1">
-        <v>-26.18085</v>
+        <v>-26.18093</v>
       </c>
       <c r="D113" s="1">
-        <v>-50.384500000000003</v>
+        <v>-50.388069999999999</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="F113" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Ponto virtual</v>
+        <v>336</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H113" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="C114" s="1">
-        <v>-26.18093</v>
-      </c>
-      <c r="D114" s="1">
-        <v>-50.388069999999999</v>
-      </c>
-      <c r="E114" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="F114" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Praça Lauro Mueller</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H114" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" s="1">
-        <f>VLOOKUP($B115,$B$10:$D$115,2)</f>
-        <v>-26.177446</v>
-      </c>
-      <c r="D115" s="1">
-        <f>VLOOKUP($B115,$B$10:$D$115,3)</f>
-        <v>-50.391396</v>
-      </c>
-      <c r="E115" s="69" t="str">
-        <f>VLOOKUP($B115,$B$10:$F$115,4)</f>
-        <v>R. Francisco de Paula Pereira</v>
-      </c>
-      <c r="F115" s="1" t="str">
-        <f>VLOOKUP($B115,$B$10:$F$115,5)</f>
-        <v>Ponto virtual</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H115" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="69" t="str">
-        <f>VLOOKUP($B116,$B$10:$F$115,5)</f>
-        <v>Praça Lauro Mueller</v>
-      </c>
-      <c r="D116" s="69" t="str">
-        <f>VLOOKUP($B116,$B$10:$F$115,5)</f>
-        <v>Praça Lauro Mueller</v>
-      </c>
-      <c r="E116" s="69" t="str">
-        <f>VLOOKUP($B116,$B$10:$F$115,5)</f>
-        <v>Praça Lauro Mueller</v>
-      </c>
-      <c r="F116" s="69" t="str">
-        <f>VLOOKUP($B116,$B$10:$F$115,5)</f>
-        <v>Praça Lauro Mueller</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H116" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 1 ","Latitude":"Praça Lauro Mueller","Longitude":"Praça Lauro Mueller","SentidoPonto":"Ponto Final","Comentario":"Praça Lauro Mueller"},</v>
-      </c>
+      <c r="B114" s="75"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Repositorio/BD/GeradorJSON.xlsx
+++ b/Repositorio/BD/GeradorJSON.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA2C25-82F7-4D68-9F1D-EF812BD65D4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E650D9-FEF6-46E1-A945-FE21FE00C23F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,9 +709,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Endereço</t>
-  </si>
-  <si>
     <t>SentidoPonto</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Rua</t>
   </si>
 </sst>
 </file>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>114</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>114</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>114</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>114</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>114</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>114</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>114</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>114</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>114</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>114</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>114</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>114</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>114</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>114</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>114</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>114</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>114</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>114</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>114</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>114</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>114</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>114</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>114</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>114</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>114</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>114</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>114</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>114</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>114</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>114</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>114</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>181</v>
@@ -8148,10 +8148,10 @@
         <v>182</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" s="69" t="s">
         <v>300</v>
-      </c>
-      <c r="G52" s="69" t="s">
-        <v>301</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -8166,16 +8166,16 @@
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G53" s="69" t="s">
         <v>48</v>
@@ -8193,16 +8193,16 @@
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="69" t="s">
         <v>48</v>
@@ -8220,16 +8220,16 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>48</v>
@@ -8247,16 +8247,16 @@
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G56" s="69" t="s">
         <v>48</v>
@@ -8274,16 +8274,16 @@
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="69" t="s">
         <v>48</v>
@@ -8301,16 +8301,16 @@
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G58" s="69" t="s">
         <v>48</v>
@@ -8328,16 +8328,16 @@
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="69" t="s">
         <v>48</v>
@@ -8355,16 +8355,16 @@
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G60" s="69" t="s">
         <v>48</v>
@@ -8382,13 +8382,13 @@
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -8409,13 +8409,13 @@
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
@@ -8436,13 +8436,13 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>26</v>
@@ -8463,13 +8463,13 @@
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>26</v>
@@ -8490,13 +8490,13 @@
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>26</v>
@@ -8517,13 +8517,13 @@
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>26</v>
@@ -8544,13 +8544,13 @@
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>26</v>
@@ -8571,13 +8571,13 @@
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
@@ -8598,13 +8598,13 @@
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>26</v>
@@ -8625,13 +8625,13 @@
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>26</v>
@@ -8652,16 +8652,16 @@
     </row>
     <row r="71" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>48</v>
@@ -8679,16 +8679,16 @@
     </row>
     <row r="72" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>48</v>
@@ -8706,16 +8706,16 @@
     </row>
     <row r="73" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G73" s="69" t="s">
         <v>48</v>
@@ -8733,16 +8733,16 @@
     </row>
     <row r="74" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G74" s="69" t="s">
         <v>48</v>
@@ -8760,16 +8760,16 @@
     </row>
     <row r="75" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G75" s="69" t="s">
         <v>48</v>
@@ -8787,16 +8787,16 @@
     </row>
     <row r="76" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G76" s="69" t="s">
         <v>48</v>
@@ -8814,16 +8814,16 @@
     </row>
     <row r="77" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G77" s="69" t="s">
         <v>48</v>
@@ -8841,16 +8841,16 @@
     </row>
     <row r="78" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G78" s="69" t="s">
         <v>48</v>
@@ -8868,16 +8868,16 @@
     </row>
     <row r="79" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G79" s="69" t="s">
         <v>48</v>
@@ -8895,13 +8895,13 @@
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F80" s="69" t="s">
         <v>26</v>
@@ -8922,13 +8922,13 @@
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F81" s="69" t="s">
         <v>26</v>
@@ -8949,13 +8949,13 @@
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F82" s="69" t="s">
         <v>26</v>
@@ -8976,13 +8976,13 @@
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F83" s="69" t="s">
         <v>26</v>
@@ -9003,13 +9003,13 @@
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F84" s="69" t="s">
         <v>26</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>181</v>
@@ -9039,10 +9039,10 @@
         <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G85" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
@@ -9057,16 +9057,16 @@
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G86" s="69" t="s">
         <v>48</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G87" s="69" t="s">
         <v>48</v>
@@ -9111,16 +9111,16 @@
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G88" s="69" t="s">
         <v>48</v>
@@ -9138,16 +9138,16 @@
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G89" s="69" t="s">
         <v>48</v>
@@ -9165,16 +9165,16 @@
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G90" s="69" t="s">
         <v>48</v>
@@ -9192,16 +9192,16 @@
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G91" s="69" t="s">
         <v>48</v>
@@ -9219,16 +9219,16 @@
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G92" s="69" t="s">
         <v>48</v>
@@ -9246,16 +9246,16 @@
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G93" s="69" t="s">
         <v>48</v>
@@ -9273,16 +9273,16 @@
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>48</v>
@@ -9300,16 +9300,16 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G95" s="69" t="s">
         <v>48</v>
@@ -9327,16 +9327,16 @@
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G96" s="69" t="s">
         <v>48</v>
@@ -9354,16 +9354,16 @@
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G97" s="69" t="s">
         <v>48</v>
@@ -9381,16 +9381,16 @@
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G98" s="69" t="s">
         <v>48</v>
@@ -9408,16 +9408,16 @@
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G99" s="69" t="s">
         <v>48</v>
@@ -9435,16 +9435,16 @@
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G100" s="69" t="s">
         <v>48</v>
@@ -9462,16 +9462,16 @@
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G101" s="69" t="s">
         <v>48</v>
@@ -9489,16 +9489,16 @@
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102" s="69" t="s">
         <v>48</v>
@@ -9516,16 +9516,16 @@
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G103" s="69" t="s">
         <v>48</v>
@@ -9543,16 +9543,16 @@
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G104" s="69" t="s">
         <v>48</v>
@@ -9570,13 +9570,13 @@
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>183</v>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>183</v>
@@ -9624,13 +9624,13 @@
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>183</v>
@@ -9651,13 +9651,13 @@
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>183</v>
@@ -9678,13 +9678,13 @@
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>183</v>
@@ -9705,13 +9705,13 @@
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>183</v>
@@ -9732,13 +9732,13 @@
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>183</v>
@@ -9759,13 +9759,13 @@
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>183</v>
@@ -9786,13 +9786,13 @@
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>26</v>
@@ -9813,13 +9813,13 @@
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
@@ -9840,13 +9840,13 @@
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>26</v>
@@ -9867,13 +9867,13 @@
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>26</v>
@@ -9894,13 +9894,13 @@
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
@@ -9921,13 +9921,13 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>26</v>
@@ -9948,13 +9948,13 @@
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>26</v>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>26</v>
@@ -10002,13 +10002,13 @@
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>26</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>181</v>
@@ -10065,8 +10065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AMK115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10096,8 +10096,8 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H7" s="66" t="str">
-        <f>$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;$L$8</f>
-        <v>"SentidoPonto":"Bairro",</v>
+        <f>$L$8&amp;$J$8&amp;$E$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;E10&amp;$J$8&amp;$L$8</f>
+        <v>,"Rua":"Praça Lauro Mueller",</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -10131,16 +10131,16 @@
         <v>223</v>
       </c>
       <c r="E9" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="74" t="s">
         <v>225</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -10160,11 +10160,11 @@
         <v>208</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="66" t="str">
-        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller"},</v>
+        <f>I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B10&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C10&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D10&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G10&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F10&amp;J$8&amp;$L$8&amp;$J$8&amp;$E$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;E10&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller","Rua":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -10178,17 +10178,17 @@
         <v>-50.388159999999999</v>
       </c>
       <c r="E11" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="69" t="s">
-        <v>229</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" s="66" t="str">
-        <f t="shared" ref="H11:H74" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <f t="shared" ref="H11:H74" si="0">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B11&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C11&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D11&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G11&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F11&amp;J$8&amp;$L$8&amp;$J$8&amp;$E$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;E11&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 2","Latitude":"-26.17314","Longitude":"-50.38816","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Fracisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -10202,17 +10202,17 @@
         <v>-50.38456</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 3","Latitude":"-26.17154","Longitude":"-50.38456","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"V. Guilherme Prust"},</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -10226,17 +10226,17 @@
         <v>-50.37932</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 4","Latitude":"-26.1735","Longitude":"-50.37932","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -10250,17 +10250,17 @@
         <v>-50.37574</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 5","Latitude":"-26.17628","Longitude":"-50.37574","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -10274,17 +10274,17 @@
         <v>-50.370330000000003</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 6","Latitude":"-26.18053","Longitude":"-50.37033","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -10298,17 +10298,17 @@
         <v>-50.367199999999997</v>
       </c>
       <c r="E16" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>232</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","SentidoPonto":"Bairro","Comentario":"IFSC"},</v>
+        <v>{"PontoID":"Ponto 7","Latitude":"-26.18301","Longitude":"-50.3672","SentidoPonto":"Bairro","Comentario":"IFSC","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10322,17 +10322,17 @@
         <v>-50.362879999999997</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 8","Latitude":"-26.18411","Longitude":"-50.36288","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Alvino Voigt"},</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10346,17 +10346,17 @@
         <v>-50.360770000000002</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 9","Latitude":"-26.18573","Longitude":"-50.36077","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Alvino Voigt"},</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10370,17 +10370,17 @@
         <v>-50.360370000000003</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 10","Latitude":"-26.18674","Longitude":"-50.36037","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Jacobe Scheuer"},</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10394,17 +10394,17 @@
         <v>-50.364640000000001</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 11","Latitude":"-26.18796","Longitude":"-50.36464","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Lateral SC280"},</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10418,17 +10418,17 @@
         <v>-50.368810000000003</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H21" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 12","Latitude":"-26.18869","Longitude":"-50.36881","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Lateral SC280"},</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -10442,17 +10442,17 @@
         <v>-50.373460000000001</v>
       </c>
       <c r="E22" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>236</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H22" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","SentidoPonto":"Bairro","Comentario":"Ponto virtual. Próx. retifica Motocar"},</v>
+        <v>{"PontoID":"Ponto 13","Latitude":"-26.18942","Longitude":"-50.37346","SentidoPonto":"Bairro","Comentario":"Ponto virtual. Próx. retifica Motocar","Rua":"Lateral SC280"},</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10466,17 +10466,17 @@
         <v>-50.378329999999998</v>
       </c>
       <c r="E23" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 14","Latitude":"-26.1907","Longitude":"-50.37833","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Mario Maier"},</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10490,17 +10490,17 @@
         <v>-50.378</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 15","Latitude":"-26.19408","Longitude":"-50.378","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Jacobe Fuck"},</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10514,17 +10514,17 @@
         <v>-50.378239999999998</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 16","Latitude":"-26.19588","Longitude":"-50.37824","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sergio Gapski"},</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10538,17 +10538,17 @@
         <v>-50.37876</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H26" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 17","Latitude":"-26.19959","Longitude":"-50.37876","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"(Sem nome)"},</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10562,17 +10562,17 @@
         <v>-50.382820000000002</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H27" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 18","Latitude":"-26.20107","Longitude":"-50.38282","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"(Sem nome)"},</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10586,17 +10586,17 @@
         <v>-50.384556000000003</v>
       </c>
       <c r="E28" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="69" t="s">
-        <v>241</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 19","Latitude":"-26.203022","Longitude":"-50.384556","SentidoPonto":"Bairro","Comentario":"Ponto Físico","Rua":"(Sem nome)"},</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10610,17 +10610,17 @@
         <v>-50.383465000000001</v>
       </c>
       <c r="E29" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="69" t="s">
-        <v>241</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H29" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 20","Latitude":"-26.205336","Longitude":"-50.383465","SentidoPonto":"Bairro","Comentario":"Ponto Físico","Rua":"(Sem nome)"},</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10634,17 +10634,17 @@
         <v>-50.379910000000002</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H30" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 21","Latitude":"-26.20448","Longitude":"-50.37991","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Antonio Grosskopf"},</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10658,17 +10658,17 @@
         <v>-50.376750000000001</v>
       </c>
       <c r="E31" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H31" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 22","Latitude":"-26.200403","Longitude":"-50.37675","SentidoPonto":"Bairro","Comentario":"Ponto Físico","Rua":"R. Narciso Ruthes"},</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10682,17 +10682,17 @@
         <v>-50.377719999999997</v>
       </c>
       <c r="E32" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H32" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 23","Latitude":"-26.1979","Longitude":"-50.37772","SentidoPonto":"Praça","Comentario":"Ponto virtual","Rua":"R. Sergio Gapski"},</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10706,17 +10706,17 @@
         <v>-50.377130000000001</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H33" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","SentidoPonto":"Praça","Comentario":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero"},</v>
+        <v>{"PontoID":"Ponto 24","Latitude":"-26.19376","Longitude":"-50.37713","SentidoPonto":"Praça","Comentario":"Ponto Físico. Próximo da Escola Estadual Emília Ferrero","Rua":"R. Jacobe Fuck"},</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -10730,17 +10730,17 @@
         <v>-50.378320000000002</v>
       </c>
       <c r="E34" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H34" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 25","Latitude":"-26.19062","Longitude":"-50.37832","SentidoPonto":"Praça","Comentario":"Ponto virtual","Rua":"R. Mario Maier"},</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -10754,17 +10754,17 @@
         <v>-50.372929999999997</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H35" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 26","Latitude":"-26.18956","Longitude":"-50.37293","SentidoPonto":"Praça","Comentario":"Ponto virtual","Rua":"Lateral SC280"},</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10778,17 +10778,17 @@
         <v>-50.364379999999997</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H36" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","SentidoPonto":"Praça","Comentario":"Ponto virtual, próximo ao Procopiak"},</v>
+        <v>{"PontoID":"Ponto 27","Latitude":"-26.18818","Longitude":"-50.36438","SentidoPonto":"Praça","Comentario":"Ponto virtual, próximo ao Procopiak","Rua":"Lateral SC280"},</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10802,17 +10802,17 @@
         <v>-50.36262</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H37" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 28","Latitude":"-26.18422","Longitude":"-50.36262","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"R. Alvino Voigt"},</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10826,17 +10826,17 @@
         <v>-50.366849999999999</v>
       </c>
       <c r="E38" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H38" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 29","Latitude":"-26.18318","Longitude":"-50.36685","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -10850,17 +10850,17 @@
         <v>-50.369019999999999</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H39" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 30","Latitude":"-26.181576","Longitude":"-50.36902","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -10874,17 +10874,17 @@
         <v>-50.371997999999998</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H40" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 31","Latitude":"-26.179176","Longitude":"-50.371998","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -10898,17 +10898,17 @@
         <v>-50.374890000000001</v>
       </c>
       <c r="E41" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H41" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 32","Latitude":"-26.176903","Longitude":"-50.37489","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10922,17 +10922,17 @@
         <v>-50.378974999999997</v>
       </c>
       <c r="E42" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H42" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","SentidoPonto":"Praça","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 33","Latitude":"-26.173763","Longitude":"-50.378975","SentidoPonto":"Praça","Comentario":"Ponto Físico","Rua":"Av. Expedicionários "},</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10946,17 +10946,17 @@
         <v>-50.38373</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H43" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","SentidoPonto":"Praça","Comentario":"Ponto virtual. Próximo ao posto Guapo."},</v>
+        <v>{"PontoID":"Ponto 34","Latitude":"-26.17144","Longitude":"-50.38373","SentidoPonto":"Praça","Comentario":"Ponto virtual. Próximo ao posto Guapo.","Rua":"R. Fracisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10973,25 +10973,25 @@
         <v>-50.387230000000002</v>
       </c>
       <c r="E44" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="69" t="s">
         <v>228</v>
-      </c>
-      <c r="F44" s="69" t="s">
-        <v>229</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>181</v>
       </c>
       <c r="H44" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","SentidoPonto":"Praça","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 35","Latitude":"-26.17224","Longitude":"-50.38723","SentidoPonto":"Praça","Comentario":"Ponto virtual","Rua":"R. Fracisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C45" s="1">
         <v>-26.178017000000001</v>
@@ -11000,22 +11000,22 @@
         <v>-50.390712999999998</v>
       </c>
       <c r="E45" s="72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H45" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","SentidoPonto":"Bairro","Comentario":"Ponto Físico"},</v>
+        <v>{"PontoID":"Ponto 36","Latitude":"-26.178017","Longitude":"-50.390713","SentidoPonto":"Bairro","Comentario":"Ponto Físico","Rua":"R. Frei Menandro Kamps"},</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="1">
         <v>-26.180969999999999</v>
@@ -11024,22 +11024,22 @@
         <v>-50.394170000000003</v>
       </c>
       <c r="E46" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="F46" s="69" t="s">
-        <v>229</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 37","Latitude":"-26.18097","Longitude":"-50.39417","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Fracisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="1">
         <v>-26.186959999999999</v>
@@ -11048,22 +11048,22 @@
         <v>-50.399859999999997</v>
       </c>
       <c r="E47" s="72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 38","Latitude":"-26.18696","Longitude":"-50.39986","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Major Vieira"},</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="1">
         <v>-26.187950000000001</v>
@@ -11072,22 +11072,22 @@
         <v>-50.401359999999997</v>
       </c>
       <c r="E48" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 39","Latitude":"-26.18795","Longitude":"-50.40136","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Cidade de Jaú"},</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1">
         <v>-26.187519999999999</v>
@@ -11096,22 +11096,22 @@
         <v>-50.406700000000001</v>
       </c>
       <c r="E49" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 40","Latitude":"-26.18752","Longitude":"-50.4067","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C50" s="1">
         <v>-26.188639999999999</v>
@@ -11120,22 +11120,22 @@
         <v>-50.409300000000002</v>
       </c>
       <c r="E50" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H50" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 41","Latitude":"-26.18864","Longitude":"-50.4093","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" s="1">
         <v>-26.189450000000001</v>
@@ -11144,22 +11144,22 @@
         <v>-50.413330000000002</v>
       </c>
       <c r="E51" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 42","Latitude":"-26.18945","Longitude":"-50.41333","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C52" s="1">
         <v>-26.19322</v>
@@ -11168,22 +11168,22 @@
         <v>-50.417479999999998</v>
       </c>
       <c r="E52" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H52" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 43","Latitude":"-26.19322","Longitude":"-50.41748","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C53" s="1">
         <v>-26.204609999999999</v>
@@ -11192,22 +11192,22 @@
         <v>-50.421570000000003</v>
       </c>
       <c r="E53" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H53" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 44","Latitude":"-26.20461","Longitude":"-50.42157","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C54" s="1">
         <v>-26.203119999999998</v>
@@ -11216,22 +11216,22 @@
         <v>-50.421210000000002</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H54" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 45","Latitude":"-26.20312","Longitude":"-50.42121","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C55" s="1">
         <v>-26.19434</v>
@@ -11240,22 +11240,22 @@
         <v>-50.419649999999997</v>
       </c>
       <c r="E55" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H55" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 46","Latitude":"-26.19434","Longitude":"-50.41965","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C56" s="1">
         <v>-26.19323</v>
@@ -11264,22 +11264,22 @@
         <v>-50.417290000000001</v>
       </c>
       <c r="E56" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H56" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 47","Latitude":"-26.19323","Longitude":"-50.41729","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="1">
         <v>-26.188700000000001</v>
@@ -11288,22 +11288,22 @@
         <v>-50.409199999999998</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H57" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 48","Latitude":"-26.1887","Longitude":"-50.4092","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" s="1">
         <v>-26.187570000000001</v>
@@ -11312,22 +11312,22 @@
         <v>-50.40652</v>
       </c>
       <c r="E58" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H58" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 49","Latitude":"-26.18757","Longitude":"-50.40652","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Estrada Dona Francisca "},</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C59" s="1">
         <v>-26.188089999999999</v>
@@ -11336,22 +11336,22 @@
         <v>-50.401350000000001</v>
       </c>
       <c r="E59" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H59" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 50","Latitude":"-26.18809","Longitude":"-50.40135","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Cidade de Jaú"},</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C60" s="1">
         <v>-26.18695</v>
@@ -11360,22 +11360,22 @@
         <v>-50.399769999999997</v>
       </c>
       <c r="E60" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H60" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 51","Latitude":"-26.18695","Longitude":"-50.39977","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Maj. Vieira"},</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1">
         <v>-26.180299999999999</v>
@@ -11384,22 +11384,22 @@
         <v>-50.393520000000002</v>
       </c>
       <c r="E61" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H61" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 52","Latitude":"-26.1803","Longitude":"-50.39352","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Francisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C62" s="1">
         <v>-26.177446</v>
@@ -11408,22 +11408,22 @@
         <v>-50.391396</v>
       </c>
       <c r="E62" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H62" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 53","Latitude":"-26.177446","Longitude":"-50.391396","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Francisco de Paula Pereira"},</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C63" s="1">
         <v>-26.173190000000002</v>
@@ -11432,22 +11432,22 @@
         <v>-50.389780000000002</v>
       </c>
       <c r="E63" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H63" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 54","Latitude":"-26.17319","Longitude":"-50.38978","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Eugênio de Souza"},</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C64" s="1">
         <v>-26.172560000000001</v>
@@ -11456,22 +11456,22 @@
         <v>-50.390729999999998</v>
       </c>
       <c r="E64" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 55","Latitude":"-26.17256","Longitude":"-50.39073","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Eugênio de Souza"},</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C65" s="1">
         <v>-26.17127</v>
@@ -11480,22 +11480,22 @@
         <v>-50.394269999999999</v>
       </c>
       <c r="E65" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H65" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 56","Latitude":"-26.17127","Longitude":"-50.39427","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" s="1">
         <v>-26.168859999999999</v>
@@ -11504,22 +11504,22 @@
         <v>-50.399540000000002</v>
       </c>
       <c r="E66" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H66" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 57","Latitude":"-26.16886","Longitude":"-50.39954","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Otto Friedrich"},</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C67" s="1">
         <v>-26.166733000000001</v>
@@ -11528,22 +11528,22 @@
         <v>-50.399006</v>
       </c>
       <c r="E67" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H67" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 58","Latitude":"-26.166733","Longitude":"-50.399006","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Otto Friedrich"},</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C68" s="1">
         <v>-26.16394</v>
@@ -11552,22 +11552,22 @@
         <v>-50.40175</v>
       </c>
       <c r="E68" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 59","Latitude":"-26.16394","Longitude":"-50.40175","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Feres João Isphair"},</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C69" s="1">
         <v>-26.163309999999999</v>
@@ -11576,22 +11576,22 @@
         <v>-50.404699999999998</v>
       </c>
       <c r="E69" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H69" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 60","Latitude":"-26.16331","Longitude":"-50.4047","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Feres João Isphair"},</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="1">
         <v>-26.162870000000002</v>
@@ -11600,22 +11600,22 @@
         <v>-50.406640000000003</v>
       </c>
       <c r="E70" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H70" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 61","Latitude":"-26.16287","Longitude":"-50.40664","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Feres João Isphair"},</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="1">
         <v>-26.164719999999999</v>
@@ -11624,22 +11624,22 @@
         <v>-50.407290000000003</v>
       </c>
       <c r="E71" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H71" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 62","Latitude":"-26.16472","Longitude":"-50.40729","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Rua Henrique Sorg"},</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="1">
         <v>-26.16797</v>
@@ -11648,22 +11648,22 @@
         <v>-50.407739999999997</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H72" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Av. Sen. Ivo D'Aquino"},</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C73" s="1">
         <v>-26.168859999999999</v>
@@ -11672,22 +11672,22 @@
         <v>-50.404670000000003</v>
       </c>
       <c r="E73" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H73" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C74" s="1">
         <v>-26.16996</v>
@@ -11696,22 +11696,22 @@
         <v>-50.400370000000002</v>
       </c>
       <c r="E74" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H74" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 65","Latitude":"-26.16996","Longitude":"-50.40037","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C75" s="1">
         <v>-26.17062</v>
@@ -11720,22 +11720,22 @@
         <v>-50.397359999999999</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H75" s="66" t="str">
-        <f t="shared" ref="H75:H113" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;M$8&amp;L$8</f>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <f t="shared" ref="H75:H113" si="1">I$8&amp;J$8&amp;B$9&amp;J$8&amp;K$8&amp;J$8&amp;B75&amp;J$8&amp;L$8&amp;J$8&amp;C$9&amp;J$8&amp;K$8&amp;J$8&amp;C75&amp;J$8&amp;L$8&amp;J$8&amp;D$9&amp;J$8&amp;K$8&amp;J$8&amp;D75&amp;$J$8&amp;$L$8&amp;$J$8&amp;$G$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;G75&amp;$J$8&amp;L$8&amp;J$8&amp;F$9&amp;J$8&amp;K$8&amp;J$8&amp;F75&amp;J$8&amp;$L$8&amp;$J$8&amp;$E$9&amp;$J$8&amp;$K$8&amp;$J$8&amp;E75&amp;$J$8&amp;M$8&amp;L$8</f>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="1">
         <v>-26.172840000000001</v>
@@ -11744,22 +11744,22 @@
         <v>-50.394129999999997</v>
       </c>
       <c r="E76" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Getúlio Vargas"},</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" s="1">
         <v>-26.17718</v>
@@ -11768,22 +11768,22 @@
         <v>-50.394880000000001</v>
       </c>
       <c r="E77" s="72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H77" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 68","Latitude":"-26.17718","Longitude":"-50.39488","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Cel. Albuquerque"},</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" s="1">
         <v>-26.182220000000001</v>
@@ -11792,22 +11792,22 @@
         <v>-50.398879999999998</v>
       </c>
       <c r="E78" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H78" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 69","Latitude":"-26.18222","Longitude":"-50.39888","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Duque de Caxias"},</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C79" s="1">
         <v>-26.183579999999999</v>
@@ -11816,22 +11816,22 @@
         <v>-50.400790000000001</v>
       </c>
       <c r="E79" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H79" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 70","Latitude":"-26.18358","Longitude":"-50.40079","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Duque de Caxias"},</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C80" s="1">
         <v>-26.181429999999999</v>
@@ -11840,22 +11840,22 @@
         <v>-50.402760000000001</v>
       </c>
       <c r="E80" s="72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H80" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 71","Latitude":"-26.18143","Longitude":"-50.40276","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Lourenço Wrublevski"},</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81" s="1">
         <v>-26.174969999999998</v>
@@ -11864,22 +11864,22 @@
         <v>-50.40569</v>
       </c>
       <c r="E81" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H81" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 72","Latitude":"-26.17497","Longitude":"-50.40569","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Álvaro Soares Machado"},</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1">
         <v>-26.17408</v>
@@ -11888,22 +11888,22 @@
         <v>-50.410350000000001</v>
       </c>
       <c r="E82" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 73","Latitude":"-26.17408","Longitude":"-50.41035","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Álvaro Soares Machado"},</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C83" s="1">
         <v>-26.1723</v>
@@ -11912,22 +11912,22 @@
         <v>-50.411960000000001</v>
       </c>
       <c r="E83" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 74","Latitude":"-26.1723","Longitude":"-50.41196","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Reuneau Cubas"},</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C84" s="1">
         <v>-26.16656</v>
@@ -11936,22 +11936,22 @@
         <v>-50.417029999999997</v>
       </c>
       <c r="E84" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 75","Latitude":"-26.16656","Longitude":"-50.41703","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C85" s="1">
         <v>-26.166910000000001</v>
@@ -11960,22 +11960,22 @@
         <v>-50.421939999999999</v>
       </c>
       <c r="E85" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H85" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 76","Latitude":"-26.16691","Longitude":"-50.42194","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C86" s="1">
         <v>-26.16638</v>
@@ -11984,22 +11984,22 @@
         <v>-50.426310000000001</v>
       </c>
       <c r="E86" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H86" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 77","Latitude":"-26.16638","Longitude":"-50.42631","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Oto Kohler"},</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C87" s="1">
         <v>-26.167439999999999</v>
@@ -12008,22 +12008,22 @@
         <v>-50.427199999999999</v>
       </c>
       <c r="E87" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F87" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H87" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 78","Latitude":"-26.16744","Longitude":"-50.4272","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C88" s="1">
         <v>-26.167280000000002</v>
@@ -12032,22 +12032,22 @@
         <v>-50.4251</v>
       </c>
       <c r="E88" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F88" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H88" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 79","Latitude":"-26.16728","Longitude":"-50.4251","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C89" s="1">
         <v>-26.166640000000001</v>
@@ -12056,22 +12056,22 @@
         <v>-50.41724</v>
       </c>
       <c r="E89" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H89" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 80","Latitude":"-26.16664","Longitude":"-50.41724","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C90" s="1">
         <v>-26.16677</v>
@@ -12080,22 +12080,22 @@
         <v>-50.414969999999997</v>
       </c>
       <c r="E90" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F90" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H90" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 81","Latitude":"-26.16677","Longitude":"-50.41497","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C91" s="1">
         <v>-26.167179999999998</v>
@@ -12104,22 +12104,22 @@
         <v>-50.411879999999996</v>
       </c>
       <c r="E91" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F91" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H91" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 82","Latitude":"-26.16718","Longitude":"-50.41188","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Sen. Ivo Dáquino"},</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1">
         <f>VLOOKUP($B92,$B$10:$D$114,2)</f>
@@ -12134,19 +12134,19 @@
         <v>Av. Sen. Ivo D'Aquino</v>
       </c>
       <c r="F92" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H92" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 63","Latitude":"-26.16797","Longitude":"-50.40774","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"Av. Sen. Ivo D'Aquino"},</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1">
         <f>VLOOKUP($B93,$B$10:$D$114,2)</f>
@@ -12161,19 +12161,19 @@
         <v>R. Roberto Eike</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H93" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 64","Latitude":"-26.16886","Longitude":"-50.40467","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C94" s="1">
         <v>-26.16968</v>
@@ -12182,20 +12182,20 @@
         <v>-50.401719999999997</v>
       </c>
       <c r="E94" s="69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H94" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172","SentidoPonto":"Bairro","Comentario":""},</v>
+        <v>{"PontoID":"Ponto 83","Latitude":"-26.16968","Longitude":"-50.40172","SentidoPonto":"Bairro","Comentario":"","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="1">
         <f>VLOOKUP($B95,$B$10:$D$114,2)</f>
@@ -12214,16 +12214,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H95" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 66","Latitude":"-26.17062","Longitude":"-50.39736","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Roberto Eike"},</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C96" s="1">
         <f>VLOOKUP($B96,$B$10:$D$114,2)</f>
@@ -12242,16 +12242,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H96" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual","Rua":"R. Getúlio Vargas"},</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97" s="1">
         <v>-26.174779999999998</v>
@@ -12268,16 +12268,16 @@
         <v>Ponto virtual</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H97" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller","Rua":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" s="1">
         <v>-26.179960000000001</v>
@@ -12286,23 +12286,23 @@
         <v>-50.389940000000003</v>
       </c>
       <c r="E98" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F98" s="1" t="str">
         <f ca="1">VLOOKUP($B98,$B$10:$F$114,5)</f>
         <v>Ponto Físico</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H98" s="66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"PontoID":"Ponto 67","Latitude":"-26.17284","Longitude":"-50.39413","SentidoPonto":"Bairro","Comentario":"Ponto virtual"},</v>
+        <v>{"PontoID":"Ponto 1","Latitude":"-26.17371","Longitude":"-50.39008","SentidoPonto":"Bairro","Comentario":"Praça Lauro Mueller","Rua":"Praça Lauro Mueller"},</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" s="1">
         <v>-26.181999999999999</v>
@@ -12311,22 +12311,22 @@
         <v>-50.386560000000003</v>
       </c>
       <c r="E99" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H99" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 86","Latitude":"-26.182","Longitude":"-50.38656","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 86","Latitude":"-26.182","Longitude":"-50.38656","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Caetano Costa"},</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="1">
         <v>-26.183869999999999</v>
@@ -12335,22 +12335,22 @@
         <v>-50.383459999999999</v>
       </c>
       <c r="E100" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H100" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 87","Latitude":"-26.18387","Longitude":"-50.38346","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 87","Latitude":"-26.18387","Longitude":"-50.38346","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Caetano Costa"},</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="1">
         <v>-26.18675</v>
@@ -12359,22 +12359,22 @@
         <v>-50.379379999999998</v>
       </c>
       <c r="E101" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H101" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 88","Latitude":"-26.18675","Longitude":"-50.37938","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 88","Latitude":"-26.18675","Longitude":"-50.37938","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"Av. Rubens Ribeiro da Silva"},</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C102" s="1">
         <v>-26.1891</v>
@@ -12383,22 +12383,22 @@
         <v>-50.376390000000001</v>
       </c>
       <c r="E102" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H102" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 89","Latitude":"-26.1891","Longitude":"-50.37639","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 89","Latitude":"-26.1891","Longitude":"-50.37639","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"Av. Rubens Ribeiro da Silva"},</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" s="1">
         <v>-26.19218</v>
@@ -12407,22 +12407,22 @@
         <v>-50.372340000000001</v>
       </c>
       <c r="E103" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H103" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 90","Latitude":"-26.19218","Longitude":"-50.37234","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 90","Latitude":"-26.19218","Longitude":"-50.37234","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"SC-477"},</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="1">
         <v>-26.195039999999999</v>
@@ -12431,22 +12431,22 @@
         <v>-50.369480000000003</v>
       </c>
       <c r="E104" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H104" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 91","Latitude":"-26.19504","Longitude":"-50.36948","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 91","Latitude":"-26.19504","Longitude":"-50.36948","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Loacir Muniz"},</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C105" s="1">
         <v>-26.196850000000001</v>
@@ -12455,22 +12455,22 @@
         <v>-50.370289999999997</v>
       </c>
       <c r="E105" s="69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H105" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 92","Latitude":"-26.19685","Longitude":"-50.37029","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 92","Latitude":"-26.19685","Longitude":"-50.37029","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Casemiro Kwicien"},</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C106" s="1">
         <v>-26.193449999999999</v>
@@ -12479,22 +12479,22 @@
         <v>-50.370649999999998</v>
       </c>
       <c r="E106" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H106" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 93","Latitude":"-26.19345","Longitude":"-50.37065","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 93","Latitude":"-26.19345","Longitude":"-50.37065","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"SC-477"},</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C107" s="1">
         <v>-26.190660000000001</v>
@@ -12503,22 +12503,22 @@
         <v>-50.37415</v>
       </c>
       <c r="E107" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H107" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 94","Latitude":"-26.19066","Longitude":"-50.37415","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 94","Latitude":"-26.19066","Longitude":"-50.37415","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"SC-477"},</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C108" s="1">
         <v>-26.187889999999999</v>
@@ -12527,22 +12527,22 @@
         <v>-50.37771</v>
       </c>
       <c r="E108" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H108" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 95","Latitude":"-26.18789","Longitude":"-50.37771","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 95","Latitude":"-26.18789","Longitude":"-50.37771","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"Av. Rubens Ribeiro da Silva"},</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C109" s="1">
         <v>-26.185189999999999</v>
@@ -12551,22 +12551,22 @@
         <v>-50.377160000000003</v>
       </c>
       <c r="E109" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H109" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 96","Latitude":"-26.18519","Longitude":"-50.37716","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 96","Latitude":"-26.18519","Longitude":"-50.37716","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Nazir Cordeiro"},</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C110" s="1">
         <v>-26.179639999999999</v>
@@ -12575,22 +12575,22 @@
         <v>-50.37726</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H110" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 97","Latitude":"-26.17964","Longitude":"-50.37726","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 97","Latitude":"-26.17964","Longitude":"-50.37726","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Bento de Lima"},</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C111" s="1">
         <v>-26.177910000000001</v>
@@ -12599,22 +12599,22 @@
         <v>-50.379660000000001</v>
       </c>
       <c r="E111" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H111" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 98","Latitude":"-26.17791","Longitude":"-50.37966","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 98","Latitude":"-26.17791","Longitude":"-50.37966","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Adolfo Bading"},</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C112" s="1">
         <v>-26.18085</v>
@@ -12623,22 +12623,22 @@
         <v>-50.384500000000003</v>
       </c>
       <c r="E112" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H112" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 99","Latitude":"-26.18085","Longitude":"-50.3845","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Paul Harris"},</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C113" s="1">
         <v>-26.18093</v>
@@ -12647,17 +12647,17 @@
         <v>-50.388069999999999</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H113" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","SentidoPonto":"Bairro","Comentario":"n/a"},</v>
+        <v>{"PontoID":"Ponto 100","Latitude":"-26.18093","Longitude":"-50.38807","SentidoPonto":"Bairro","Comentario":"n/a","Rua":"R. Caetano Costa"},</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -12739,7 +12739,7 @@
     </row>
     <row r="12" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="77" t="str">
         <f>F11&amp;", "&amp;E12</f>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="13" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E13" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="77" t="str">
         <f t="shared" ref="F13:F48" si="0">F12&amp;", "&amp;E13</f>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="14" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E14" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="15" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E15" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F15" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="16" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E16" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F18" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F20" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F21" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F22" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F23" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F24" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F25" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F26" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12910,7 +12910,7 @@
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F31" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F32" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F33" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F34" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F35" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F36" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F37" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F38" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" s="77" t="str">
         <f t="shared" si="0"/>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F40" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13000,7 +13000,7 @@
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F42" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F45" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F46" s="77" t="str">
         <f t="shared" si="0"/>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F47" s="77" t="str">
         <f t="shared" si="0"/>
